--- a/ZGN.xlsx
+++ b/ZGN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98FA335-7CB4-4471-9059-D756F505E0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5BA924-5179-47F7-BBFC-929500BA034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{E3433EC9-BF81-49D2-893F-3D58E7E5951B}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{E3433EC9-BF81-49D2-893F-3D58E7E5951B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="77">
   <si>
     <t>Ermenegildo Zegna</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>Main</t>
-  </si>
-  <si>
-    <t>Q224</t>
   </si>
   <si>
     <t>FY18</t>
@@ -123,9 +120,6 @@
     <t>Group Stores</t>
   </si>
   <si>
-    <t>Total Stores</t>
-  </si>
-  <si>
     <t>Zegna Wholesale Stores</t>
   </si>
   <si>
@@ -136,9 +130,6 @@
   </si>
   <si>
     <t>Group Wholesale Stores</t>
-  </si>
-  <si>
-    <t>Total DTC Stores</t>
   </si>
   <si>
     <t>Segments</t>
@@ -264,29 +255,42 @@
     <t>EPS</t>
   </si>
   <si>
-    <t xml:space="preserve">Store Growth </t>
-  </si>
-  <si>
     <t>IR</t>
   </si>
   <si>
     <t>ZGN</t>
+  </si>
+  <si>
+    <t>H125</t>
+  </si>
+  <si>
+    <t>H225</t>
+  </si>
+  <si>
+    <t>Q225</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0;\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -475,37 +479,44 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -844,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018CF810-AD0B-4C96-BAF8-DBD6E1A11EAF}">
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -871,85 +882,86 @@
         <v>2</v>
       </c>
       <c r="J2" s="2">
-        <v>9.08</v>
+        <v>9.6300000000000008</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="5">
-        <v>250.63055600000001</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>9</v>
+      <c r="J3" s="25">
+        <v>253.02378999999999</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="25">
         <f>+J2*J3</f>
-        <v>2275.7254484800001</v>
+        <v>2436.6190977000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="5">
-        <v>225.316</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>9</v>
+      <c r="J5" s="25">
+        <f>159.896+71.329</f>
+        <v>231.22499999999997</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J6" s="5">
-        <f>218.132+167.963</f>
-        <v>386.09500000000003</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>9</v>
+      <c r="J6" s="25">
+        <f>174.235+174.418</f>
+        <v>348.65300000000002</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="F7" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="25">
         <f>+J4-J5+J6</f>
-        <v>2436.5044484800001</v>
+        <v>2554.0470977000004</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -958,13 +970,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
@@ -973,15 +985,15 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -994,13 +1006,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460A18FB-3A62-490B-BC1A-A7EA583225D9}">
-  <dimension ref="A1:AU351"/>
+  <dimension ref="A1:BY348"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1010,58 +1022,64 @@
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1069,23 +1087,27 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4">
+        <v>286</v>
+      </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="4">
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
         <v>285</v>
       </c>
-      <c r="P3" s="4">
+      <c r="R3" s="4">
         <v>281</v>
       </c>
-      <c r="Q3" s="4"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1093,23 +1115,27 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4">
+        <v>120</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="4">
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4">
         <v>106</v>
       </c>
-      <c r="P4" s="4">
+      <c r="R4" s="4">
         <v>116</v>
       </c>
-      <c r="Q4" s="4"/>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1117,45 +1143,51 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="4">
+        <v>66</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4">
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
         <v>62</v>
       </c>
-      <c r="P5" s="4">
+      <c r="R5" s="4">
         <v>64</v>
       </c>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4">
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>472</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7">
         <v>453</v>
       </c>
-      <c r="P6" s="4">
+      <c r="R6" s="7">
         <v>461</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="S6" s="4"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -1184,10 +1216,12 @@
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
       <c r="AU6" s="5"/>
-    </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1201,15 +1235,15 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="4">
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4">
         <v>120</v>
       </c>
-      <c r="P7" s="4">
+      <c r="R7" s="4">
         <v>118</v>
       </c>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
+      <c r="S7" s="4"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -1238,10 +1272,12 @@
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
       <c r="AU7" s="5"/>
-    </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+    </row>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1255,15 +1291,15 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4">
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4">
         <v>24</v>
       </c>
-      <c r="P8" s="4">
+      <c r="R8" s="4">
         <v>21</v>
       </c>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -1292,10 +1328,12 @@
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
       <c r="AU8" s="5"/>
-    </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+    </row>
+    <row r="9" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1309,47 +1347,77 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4">
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4">
         <v>67</v>
       </c>
-      <c r="P9" s="4">
+      <c r="R9" s="4">
         <v>64</v>
       </c>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-      <c r="AT9" s="5"/>
-      <c r="AU9" s="5"/>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="S9" s="4"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25"/>
+      <c r="BC9" s="25"/>
+      <c r="BD9" s="25"/>
+      <c r="BE9" s="25"/>
+      <c r="BF9" s="25"/>
+      <c r="BG9" s="25"/>
+      <c r="BH9" s="25"/>
+      <c r="BI9" s="25"/>
+      <c r="BJ9" s="25"/>
+      <c r="BK9" s="25"/>
+      <c r="BL9" s="25"/>
+      <c r="BM9" s="25"/>
+      <c r="BN9" s="25"/>
+      <c r="BO9" s="25"/>
+      <c r="BP9" s="25"/>
+      <c r="BQ9" s="25"/>
+      <c r="BR9" s="25"/>
+      <c r="BS9" s="25"/>
+      <c r="BT9" s="25"/>
+      <c r="BU9" s="25"/>
+      <c r="BV9" s="25"/>
+      <c r="BW9" s="25"/>
+      <c r="BX9" s="25"/>
+      <c r="BY9" s="25"/>
+    </row>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1363,1336 +1431,2035 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4">
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4">
         <v>211</v>
       </c>
-      <c r="P10" s="4">
+      <c r="R10" s="4">
         <v>203</v>
       </c>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
-        <f t="shared" ref="J11:O11" si="0">+SUM(J3:J6)</f>
+      <c r="S10" s="4"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="25"/>
+      <c r="AW10" s="25"/>
+      <c r="AX10" s="25"/>
+      <c r="AY10" s="25"/>
+      <c r="AZ10" s="25"/>
+      <c r="BA10" s="25"/>
+      <c r="BB10" s="25"/>
+      <c r="BC10" s="25"/>
+      <c r="BD10" s="25"/>
+      <c r="BE10" s="25"/>
+      <c r="BF10" s="25"/>
+      <c r="BG10" s="25"/>
+      <c r="BH10" s="25"/>
+      <c r="BI10" s="25"/>
+      <c r="BJ10" s="25"/>
+      <c r="BK10" s="25"/>
+      <c r="BL10" s="25"/>
+      <c r="BM10" s="25"/>
+      <c r="BN10" s="25"/>
+      <c r="BO10" s="25"/>
+      <c r="BP10" s="25"/>
+      <c r="BQ10" s="25"/>
+      <c r="BR10" s="25"/>
+      <c r="BS10" s="25"/>
+      <c r="BT10" s="25"/>
+      <c r="BU10" s="25"/>
+      <c r="BV10" s="25"/>
+      <c r="BW10" s="25"/>
+      <c r="BX10" s="25"/>
+      <c r="BY10" s="25"/>
+    </row>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="25"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="25"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
+      <c r="BC11" s="25"/>
+      <c r="BD11" s="25"/>
+      <c r="BE11" s="25"/>
+      <c r="BF11" s="25"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="25"/>
+      <c r="BL11" s="25"/>
+      <c r="BM11" s="25"/>
+      <c r="BN11" s="25"/>
+      <c r="BO11" s="25"/>
+      <c r="BP11" s="25"/>
+      <c r="BQ11" s="25"/>
+      <c r="BR11" s="25"/>
+      <c r="BS11" s="25"/>
+      <c r="BT11" s="25"/>
+      <c r="BU11" s="25"/>
+      <c r="BV11" s="25"/>
+      <c r="BW11" s="25"/>
+      <c r="BX11" s="25"/>
+      <c r="BY11" s="25"/>
+    </row>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25">
+        <v>541.31899999999996</v>
+      </c>
+      <c r="F12" s="25">
+        <f>+Q12-E12</f>
+        <v>568.17200000000003</v>
+      </c>
+      <c r="G12" s="25">
+        <v>566.06700000000001</v>
+      </c>
+      <c r="H12" s="25">
+        <f>+R12-G12</f>
+        <v>597.65499999999997</v>
+      </c>
+      <c r="I12" s="25">
+        <v>570.40899999999999</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25">
+        <v>1109.491</v>
+      </c>
+      <c r="R12" s="25">
+        <v>1163.722</v>
+      </c>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
+      <c r="AW12" s="25"/>
+      <c r="AX12" s="25"/>
+      <c r="AY12" s="25"/>
+      <c r="AZ12" s="25"/>
+      <c r="BA12" s="25"/>
+      <c r="BB12" s="25"/>
+      <c r="BC12" s="25"/>
+      <c r="BD12" s="25"/>
+      <c r="BE12" s="25"/>
+      <c r="BF12" s="25"/>
+      <c r="BG12" s="25"/>
+      <c r="BH12" s="25"/>
+      <c r="BI12" s="25"/>
+      <c r="BJ12" s="25"/>
+      <c r="BK12" s="25"/>
+      <c r="BL12" s="25"/>
+      <c r="BM12" s="25"/>
+      <c r="BN12" s="25"/>
+      <c r="BO12" s="25"/>
+      <c r="BP12" s="25"/>
+      <c r="BQ12" s="25"/>
+      <c r="BR12" s="25"/>
+      <c r="BS12" s="25"/>
+      <c r="BT12" s="25"/>
+      <c r="BU12" s="25"/>
+      <c r="BV12" s="25"/>
+      <c r="BW12" s="25"/>
+      <c r="BX12" s="25"/>
+      <c r="BY12" s="25"/>
+    </row>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25">
+        <v>206.95099999999999</v>
+      </c>
+      <c r="F13" s="25">
+        <f t="shared" ref="F13:F17" si="0">+Q13-E13</f>
+        <v>171.45900000000003</v>
+      </c>
+      <c r="G13" s="25">
+        <v>166.721</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" ref="H13:H17" si="1">+R13-G13</f>
+        <v>147.99099999999999</v>
+      </c>
+      <c r="I13" s="25">
+        <v>129.154</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25">
+        <v>378.41</v>
+      </c>
+      <c r="R13" s="25">
+        <v>314.71199999999999</v>
+      </c>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="25"/>
+      <c r="AY13" s="25"/>
+      <c r="AZ13" s="25"/>
+      <c r="BA13" s="25"/>
+      <c r="BB13" s="25"/>
+      <c r="BC13" s="25"/>
+      <c r="BD13" s="25"/>
+      <c r="BE13" s="25"/>
+      <c r="BF13" s="25"/>
+      <c r="BG13" s="25"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="25"/>
+      <c r="BJ13" s="25"/>
+      <c r="BK13" s="25"/>
+      <c r="BL13" s="25"/>
+      <c r="BM13" s="25"/>
+      <c r="BN13" s="25"/>
+      <c r="BO13" s="25"/>
+      <c r="BP13" s="25"/>
+      <c r="BQ13" s="25"/>
+      <c r="BR13" s="25"/>
+      <c r="BS13" s="25"/>
+      <c r="BT13" s="25"/>
+      <c r="BU13" s="25"/>
+      <c r="BV13" s="25"/>
+      <c r="BW13" s="25"/>
+      <c r="BX13" s="25"/>
+      <c r="BY13" s="25"/>
+    </row>
+    <row r="14" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25">
+        <v>64.015000000000001</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="0"/>
+        <v>171.51600000000002</v>
+      </c>
+      <c r="G14" s="25">
+        <v>148.49299999999999</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="1"/>
+        <v>166.02100000000002</v>
+      </c>
+      <c r="I14" s="25">
+        <v>152.715</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25">
+        <v>235.53100000000001</v>
+      </c>
+      <c r="R14" s="25">
+        <v>314.51400000000001</v>
+      </c>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="25"/>
+      <c r="BD14" s="25"/>
+      <c r="BE14" s="25"/>
+      <c r="BF14" s="25"/>
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="25"/>
+      <c r="BL14" s="25"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="25"/>
+      <c r="BO14" s="25"/>
+      <c r="BP14" s="25"/>
+      <c r="BQ14" s="25"/>
+      <c r="BR14" s="25"/>
+      <c r="BS14" s="25"/>
+      <c r="BT14" s="25"/>
+      <c r="BU14" s="25"/>
+      <c r="BV14" s="25"/>
+      <c r="BW14" s="25"/>
+      <c r="BX14" s="25"/>
+      <c r="BY14" s="25"/>
+    </row>
+    <row r="15" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25">
+        <v>73.072000000000003</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" si="0"/>
+        <v>77.913999999999987</v>
+      </c>
+      <c r="G15" s="25">
+        <v>71.835999999999999</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" si="1"/>
+        <v>66.316999999999993</v>
+      </c>
+      <c r="I15" s="25">
+        <v>67.061000000000007</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25">
+        <v>150.98599999999999</v>
+      </c>
+      <c r="R15" s="25">
+        <v>138.15299999999999</v>
+      </c>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="25"/>
+      <c r="BF15" s="25"/>
+      <c r="BG15" s="25"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="25"/>
+      <c r="BK15" s="25"/>
+      <c r="BL15" s="25"/>
+      <c r="BM15" s="25"/>
+      <c r="BN15" s="25"/>
+      <c r="BO15" s="25"/>
+      <c r="BP15" s="25"/>
+      <c r="BQ15" s="25"/>
+      <c r="BR15" s="25"/>
+      <c r="BS15" s="25"/>
+      <c r="BT15" s="25"/>
+      <c r="BU15" s="25"/>
+      <c r="BV15" s="25"/>
+      <c r="BW15" s="25"/>
+      <c r="BX15" s="25"/>
+      <c r="BY15" s="25"/>
+    </row>
+    <row r="16" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25">
+        <v>17.702000000000002</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="0"/>
+        <v>12.428999999999998</v>
+      </c>
+      <c r="G16" s="25">
+        <v>7.0049999999999999</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" si="1"/>
+        <v>8.5410000000000004</v>
+      </c>
+      <c r="I16" s="25">
+        <v>8.3510000000000009</v>
+      </c>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25">
+        <v>30.131</v>
+      </c>
+      <c r="R16" s="25">
+        <v>15.545999999999999</v>
+      </c>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
+      <c r="BC16" s="25"/>
+      <c r="BD16" s="25"/>
+      <c r="BE16" s="25"/>
+      <c r="BF16" s="25"/>
+      <c r="BG16" s="25"/>
+      <c r="BH16" s="25"/>
+      <c r="BI16" s="25"/>
+      <c r="BJ16" s="25"/>
+      <c r="BK16" s="25"/>
+      <c r="BL16" s="25"/>
+      <c r="BM16" s="25"/>
+      <c r="BN16" s="25"/>
+      <c r="BO16" s="25"/>
+      <c r="BP16" s="25"/>
+      <c r="BQ16" s="25"/>
+      <c r="BR16" s="25"/>
+      <c r="BS16" s="25"/>
+      <c r="BT16" s="25"/>
+      <c r="BU16" s="25"/>
+      <c r="BV16" s="25"/>
+      <c r="BW16" s="25"/>
+      <c r="BX16" s="25"/>
+      <c r="BY16" s="25"/>
+    </row>
+    <row r="17" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26">
+        <v>903.05899999999997</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="0"/>
+        <v>1001.4900000000002</v>
+      </c>
+      <c r="G17" s="26">
+        <v>960.11199999999997</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="1"/>
+        <v>986.53499999999997</v>
+      </c>
+      <c r="I17" s="26">
+        <v>927.69</v>
+      </c>
+      <c r="J17" s="26"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26">
+        <f t="shared" ref="L17:Q17" si="2">+SUM(L12:L16)</f>
         <v>0</v>
       </c>
-      <c r="K11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <f t="shared" si="0"/>
-        <v>906</v>
-      </c>
-      <c r="P11" s="4">
-        <f>+SUM(P3:P6)</f>
-        <v>922</v>
-      </c>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="7">
-        <f t="shared" ref="C12:H12" si="1">+SUM(C3:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7">
-        <f t="shared" ref="J12:P12" si="2">+SUM(J3:J10)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
+      <c r="M17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="7">
+      <c r="N17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="7">
+      <c r="O17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="7">
+      <c r="P17" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O12" s="7">
+      <c r="Q17" s="26">
         <f t="shared" si="2"/>
-        <v>1328</v>
-      </c>
-      <c r="P12" s="7">
-        <f t="shared" si="2"/>
-        <v>1328</v>
-      </c>
-      <c r="Q12" s="7">
-        <f t="shared" ref="Q12" si="3">+SUM(Q3:Q10)</f>
+        <v>1904.5490000000002</v>
+      </c>
+      <c r="R17" s="26">
+        <f>+SUM(R12:R16)</f>
+        <v>1946.6469999999999</v>
+      </c>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="25"/>
+      <c r="AW17" s="25"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="25"/>
+      <c r="AZ17" s="25"/>
+      <c r="BA17" s="25"/>
+      <c r="BB17" s="25"/>
+      <c r="BC17" s="25"/>
+      <c r="BD17" s="25"/>
+      <c r="BE17" s="25"/>
+      <c r="BF17" s="25"/>
+      <c r="BG17" s="25"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="25"/>
+      <c r="BK17" s="25"/>
+      <c r="BL17" s="25"/>
+      <c r="BM17" s="25"/>
+      <c r="BN17" s="25"/>
+      <c r="BO17" s="25"/>
+      <c r="BP17" s="25"/>
+      <c r="BQ17" s="25"/>
+      <c r="BR17" s="25"/>
+      <c r="BS17" s="25"/>
+      <c r="BT17" s="25"/>
+      <c r="BU17" s="25"/>
+      <c r="BV17" s="25"/>
+      <c r="BW17" s="25"/>
+      <c r="BX17" s="25"/>
+      <c r="BY17" s="25"/>
+    </row>
+    <row r="18" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25">
+        <v>323.22800000000001</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25">
+        <v>322.678</v>
+      </c>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25">
+        <v>301.65800000000002</v>
+      </c>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="25"/>
+      <c r="AW18" s="25"/>
+      <c r="AX18" s="25"/>
+      <c r="AY18" s="25"/>
+      <c r="AZ18" s="25"/>
+      <c r="BA18" s="25"/>
+      <c r="BB18" s="25"/>
+      <c r="BC18" s="25"/>
+      <c r="BD18" s="25"/>
+      <c r="BE18" s="25"/>
+      <c r="BF18" s="25"/>
+      <c r="BG18" s="25"/>
+      <c r="BH18" s="25"/>
+      <c r="BI18" s="25"/>
+      <c r="BJ18" s="25"/>
+      <c r="BK18" s="25"/>
+      <c r="BL18" s="25"/>
+      <c r="BM18" s="25"/>
+      <c r="BN18" s="25"/>
+      <c r="BO18" s="25"/>
+      <c r="BP18" s="25"/>
+      <c r="BQ18" s="25"/>
+      <c r="BR18" s="25"/>
+      <c r="BS18" s="25"/>
+      <c r="BT18" s="25"/>
+      <c r="BU18" s="25"/>
+      <c r="BV18" s="25"/>
+      <c r="BW18" s="25"/>
+      <c r="BX18" s="25"/>
+      <c r="BY18" s="25"/>
+    </row>
+    <row r="19" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="25">
+        <f t="shared" ref="C19:F19" si="3">+C17-C18</f>
         <v>0</v>
       </c>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-      <c r="AT13" s="5"/>
-      <c r="AU13" s="5"/>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5">
-        <v>541.31899999999996</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <v>566.06700000000001</v>
-      </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5">
-        <v>1109.491</v>
-      </c>
-      <c r="P14" s="5">
-        <v>1163.722</v>
-      </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-      <c r="AT14" s="5"/>
-      <c r="AU14" s="5"/>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5">
-        <v>206.95099999999999</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5">
-        <v>166.721</v>
-      </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5">
-        <v>378.41</v>
-      </c>
-      <c r="P15" s="5">
-        <v>314.71199999999999</v>
-      </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-      <c r="AT15" s="5"/>
-      <c r="AU15" s="5"/>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <v>64.015000000000001</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
-        <v>148.49299999999999</v>
-      </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5">
-        <v>235.53100000000001</v>
-      </c>
-      <c r="P16" s="5">
-        <v>314.51400000000001</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="5"/>
-      <c r="AT16" s="5"/>
-      <c r="AU16" s="5"/>
-    </row>
-    <row r="17" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
-        <v>73.072000000000003</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5">
-        <v>71.835999999999999</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5">
-        <v>150.98599999999999</v>
-      </c>
-      <c r="P17" s="5">
-        <v>138.15299999999999</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-      <c r="AT17" s="5"/>
-      <c r="AU17" s="5"/>
-    </row>
-    <row r="18" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <v>17.702000000000002</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <v>7.0049999999999999</v>
-      </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5">
-        <v>30.131</v>
-      </c>
-      <c r="P18" s="5">
-        <v>15.545999999999999</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
-    </row>
-    <row r="19" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8">
-        <v>903.05899999999997</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8">
-        <v>960.11199999999997</v>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="8">
-        <f t="shared" ref="J19:O19" si="4">+SUM(J14:J18)</f>
+      <c r="D19" s="25">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K19" s="8">
+      <c r="E19" s="25">
+        <f t="shared" si="3"/>
+        <v>579.8309999999999</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="3"/>
+        <v>1001.4900000000002</v>
+      </c>
+      <c r="G19" s="25">
+        <f>+G17-G18</f>
+        <v>637.43399999999997</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" ref="H19:J19" si="4">+H17-H18</f>
+        <v>986.53499999999997</v>
+      </c>
+      <c r="I19" s="25">
+        <f t="shared" si="4"/>
+        <v>626.03200000000004</v>
+      </c>
+      <c r="J19" s="25">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="L19" s="8">
-        <f t="shared" si="4"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="25"/>
+      <c r="AW19" s="25"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="25"/>
+      <c r="AZ19" s="25"/>
+      <c r="BA19" s="25"/>
+      <c r="BB19" s="25"/>
+      <c r="BC19" s="25"/>
+      <c r="BD19" s="25"/>
+      <c r="BE19" s="25"/>
+      <c r="BF19" s="25"/>
+      <c r="BG19" s="25"/>
+      <c r="BH19" s="25"/>
+      <c r="BI19" s="25"/>
+      <c r="BJ19" s="25"/>
+      <c r="BK19" s="25"/>
+      <c r="BL19" s="25"/>
+      <c r="BM19" s="25"/>
+      <c r="BN19" s="25"/>
+      <c r="BO19" s="25"/>
+      <c r="BP19" s="25"/>
+      <c r="BQ19" s="25"/>
+      <c r="BR19" s="25"/>
+      <c r="BS19" s="25"/>
+      <c r="BT19" s="25"/>
+      <c r="BU19" s="25"/>
+      <c r="BV19" s="25"/>
+      <c r="BW19" s="25"/>
+      <c r="BX19" s="25"/>
+      <c r="BY19" s="25"/>
+    </row>
+    <row r="20" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25">
+        <v>415.79199999999997</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25">
+        <v>497.61200000000002</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25">
+        <v>501.80399999999997</v>
+      </c>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="25"/>
+      <c r="AW20" s="25"/>
+      <c r="AX20" s="25"/>
+      <c r="AY20" s="25"/>
+      <c r="AZ20" s="25"/>
+      <c r="BA20" s="25"/>
+      <c r="BB20" s="25"/>
+      <c r="BC20" s="25"/>
+      <c r="BD20" s="25"/>
+      <c r="BE20" s="25"/>
+      <c r="BF20" s="25"/>
+      <c r="BG20" s="25"/>
+      <c r="BH20" s="25"/>
+      <c r="BI20" s="25"/>
+      <c r="BJ20" s="25"/>
+      <c r="BK20" s="25"/>
+      <c r="BL20" s="25"/>
+      <c r="BM20" s="25"/>
+      <c r="BN20" s="25"/>
+      <c r="BO20" s="25"/>
+      <c r="BP20" s="25"/>
+      <c r="BQ20" s="25"/>
+      <c r="BR20" s="25"/>
+      <c r="BS20" s="25"/>
+      <c r="BT20" s="25"/>
+      <c r="BU20" s="25"/>
+      <c r="BV20" s="25"/>
+      <c r="BW20" s="25"/>
+      <c r="BX20" s="25"/>
+      <c r="BY20" s="25"/>
+    </row>
+    <row r="21" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25">
+        <v>47.53</v>
+      </c>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25">
+        <v>66.751000000000005</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25">
+        <v>62.881999999999998</v>
+      </c>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="25"/>
+      <c r="AS21" s="25"/>
+      <c r="AT21" s="25"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="25"/>
+      <c r="AW21" s="25"/>
+      <c r="AX21" s="25"/>
+      <c r="AY21" s="25"/>
+      <c r="AZ21" s="25"/>
+      <c r="BA21" s="25"/>
+      <c r="BB21" s="25"/>
+      <c r="BC21" s="25"/>
+      <c r="BD21" s="25"/>
+      <c r="BE21" s="25"/>
+      <c r="BF21" s="25"/>
+      <c r="BG21" s="25"/>
+      <c r="BH21" s="25"/>
+      <c r="BI21" s="25"/>
+      <c r="BJ21" s="25"/>
+      <c r="BK21" s="25"/>
+      <c r="BL21" s="25"/>
+      <c r="BM21" s="25"/>
+      <c r="BN21" s="25"/>
+      <c r="BO21" s="25"/>
+      <c r="BP21" s="25"/>
+      <c r="BQ21" s="25"/>
+      <c r="BR21" s="25"/>
+      <c r="BS21" s="25"/>
+      <c r="BT21" s="25"/>
+      <c r="BU21" s="25"/>
+      <c r="BV21" s="25"/>
+      <c r="BW21" s="25"/>
+      <c r="BX21" s="25"/>
+      <c r="BY21" s="25"/>
+    </row>
+    <row r="22" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="25">
+        <f t="shared" ref="C22:F22" si="5">+C19-C20-C21</f>
         <v>0</v>
       </c>
-      <c r="M19" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="8">
-        <f t="shared" si="4"/>
-        <v>1904.5490000000002</v>
-      </c>
-      <c r="P19" s="8">
-        <f>+SUM(P14:P18)</f>
-        <v>1946.6469999999999</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-    </row>
-    <row r="20" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5">
-        <v>323.22800000000001</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
-        <v>322.678</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
-    </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="5">
-        <f t="shared" ref="C21:F21" si="5">+C19-C20</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="D22" s="25">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="25">
         <f t="shared" si="5"/>
-        <v>579.8309999999999</v>
-      </c>
-      <c r="F21" s="5">
+        <v>116.50899999999993</v>
+      </c>
+      <c r="F22" s="25">
         <f t="shared" si="5"/>
+        <v>1001.4900000000002</v>
+      </c>
+      <c r="G22" s="25">
+        <f>+G19-G20-G21</f>
+        <v>73.070999999999941</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" ref="H22:J22" si="6">+H19-H20-H21</f>
+        <v>986.53499999999997</v>
+      </c>
+      <c r="I22" s="25">
+        <f t="shared" si="6"/>
+        <v>61.346000000000068</v>
+      </c>
+      <c r="J22" s="25">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G21" s="5">
-        <f>+G19-G20</f>
-        <v>637.43399999999997</v>
-      </c>
-      <c r="H21" s="5">
-        <f t="shared" ref="H21" si="6">+H19-H20</f>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="25"/>
+      <c r="AS22" s="25"/>
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="25"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="25"/>
+      <c r="AY22" s="25"/>
+      <c r="AZ22" s="25"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="25"/>
+      <c r="BC22" s="25"/>
+      <c r="BD22" s="25"/>
+      <c r="BE22" s="25"/>
+      <c r="BF22" s="25"/>
+      <c r="BG22" s="25"/>
+      <c r="BH22" s="25"/>
+      <c r="BI22" s="25"/>
+      <c r="BJ22" s="25"/>
+      <c r="BK22" s="25"/>
+      <c r="BL22" s="25"/>
+      <c r="BM22" s="25"/>
+      <c r="BN22" s="25"/>
+      <c r="BO22" s="25"/>
+      <c r="BP22" s="25"/>
+      <c r="BQ22" s="25"/>
+      <c r="BR22" s="25"/>
+      <c r="BS22" s="25"/>
+      <c r="BT22" s="25"/>
+      <c r="BU22" s="25"/>
+      <c r="BV22" s="25"/>
+      <c r="BW22" s="25"/>
+      <c r="BX22" s="25"/>
+      <c r="BY22" s="25"/>
+    </row>
+    <row r="23" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25">
+        <v>15.601000000000001</v>
+      </c>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25">
+        <v>12.106</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25">
+        <v>21.207000000000001</v>
+      </c>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25"/>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="25"/>
+      <c r="AY23" s="25"/>
+      <c r="AZ23" s="25"/>
+      <c r="BA23" s="25"/>
+      <c r="BB23" s="25"/>
+      <c r="BC23" s="25"/>
+      <c r="BD23" s="25"/>
+      <c r="BE23" s="25"/>
+      <c r="BF23" s="25"/>
+      <c r="BG23" s="25"/>
+      <c r="BH23" s="25"/>
+      <c r="BI23" s="25"/>
+      <c r="BJ23" s="25"/>
+      <c r="BK23" s="25"/>
+      <c r="BL23" s="25"/>
+      <c r="BM23" s="25"/>
+      <c r="BN23" s="25"/>
+      <c r="BO23" s="25"/>
+      <c r="BP23" s="25"/>
+      <c r="BQ23" s="25"/>
+      <c r="BR23" s="25"/>
+      <c r="BS23" s="25"/>
+      <c r="BT23" s="25"/>
+      <c r="BU23" s="25"/>
+      <c r="BV23" s="25"/>
+      <c r="BW23" s="25"/>
+      <c r="BX23" s="25"/>
+      <c r="BY23" s="25"/>
+    </row>
+    <row r="24" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25">
+        <v>44.591999999999999</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25">
+        <v>29.266999999999999</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25">
+        <v>25.408000000000001</v>
+      </c>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="25"/>
+      <c r="AY24" s="25"/>
+      <c r="AZ24" s="25"/>
+      <c r="BA24" s="25"/>
+      <c r="BB24" s="25"/>
+      <c r="BC24" s="25"/>
+      <c r="BD24" s="25"/>
+      <c r="BE24" s="25"/>
+      <c r="BF24" s="25"/>
+      <c r="BG24" s="25"/>
+      <c r="BH24" s="25"/>
+      <c r="BI24" s="25"/>
+      <c r="BJ24" s="25"/>
+      <c r="BK24" s="25"/>
+      <c r="BL24" s="25"/>
+      <c r="BM24" s="25"/>
+      <c r="BN24" s="25"/>
+      <c r="BO24" s="25"/>
+      <c r="BP24" s="25"/>
+      <c r="BQ24" s="25"/>
+      <c r="BR24" s="25"/>
+      <c r="BS24" s="25"/>
+      <c r="BT24" s="25"/>
+      <c r="BU24" s="25"/>
+      <c r="BV24" s="25"/>
+      <c r="BW24" s="25"/>
+      <c r="BX24" s="25"/>
+      <c r="BY24" s="25"/>
+    </row>
+    <row r="25" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25">
+        <v>7.0030000000000001</v>
+      </c>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25">
+        <v>7.6840000000000002</v>
+      </c>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25">
+        <v>-10.214</v>
+      </c>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="25"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="25"/>
+      <c r="AY25" s="25"/>
+      <c r="AZ25" s="25"/>
+      <c r="BA25" s="25"/>
+      <c r="BB25" s="25"/>
+      <c r="BC25" s="25"/>
+      <c r="BD25" s="25"/>
+      <c r="BE25" s="25"/>
+      <c r="BF25" s="25"/>
+      <c r="BG25" s="25"/>
+      <c r="BH25" s="25"/>
+      <c r="BI25" s="25"/>
+      <c r="BJ25" s="25"/>
+      <c r="BK25" s="25"/>
+      <c r="BL25" s="25"/>
+      <c r="BM25" s="25"/>
+      <c r="BN25" s="25"/>
+      <c r="BO25" s="25"/>
+      <c r="BP25" s="25"/>
+      <c r="BQ25" s="25"/>
+      <c r="BR25" s="25"/>
+      <c r="BS25" s="25"/>
+      <c r="BT25" s="25"/>
+      <c r="BU25" s="25"/>
+      <c r="BV25" s="25"/>
+      <c r="BW25" s="25"/>
+      <c r="BX25" s="25"/>
+      <c r="BY25" s="25"/>
+    </row>
+    <row r="26" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25">
+        <v>-2.2370000000000001</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25">
+        <v>0.314</v>
+      </c>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25"/>
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25"/>
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="25"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="25"/>
+      <c r="AY26" s="25"/>
+      <c r="AZ26" s="25"/>
+      <c r="BA26" s="25"/>
+      <c r="BB26" s="25"/>
+      <c r="BC26" s="25"/>
+      <c r="BD26" s="25"/>
+      <c r="BE26" s="25"/>
+      <c r="BF26" s="25"/>
+      <c r="BG26" s="25"/>
+      <c r="BH26" s="25"/>
+      <c r="BI26" s="25"/>
+      <c r="BJ26" s="25"/>
+      <c r="BK26" s="25"/>
+      <c r="BL26" s="25"/>
+      <c r="BM26" s="25"/>
+      <c r="BN26" s="25"/>
+      <c r="BO26" s="25"/>
+      <c r="BP26" s="25"/>
+      <c r="BQ26" s="25"/>
+      <c r="BR26" s="25"/>
+      <c r="BS26" s="25"/>
+      <c r="BT26" s="25"/>
+      <c r="BU26" s="25"/>
+      <c r="BV26" s="25"/>
+      <c r="BW26" s="25"/>
+      <c r="BX26" s="25"/>
+      <c r="BY26" s="25"/>
+    </row>
+    <row r="27" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="25">
+        <f t="shared" ref="C27:F27" si="7">+C22+C23-C24-C25+C26</f>
         <v>0</v>
       </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="5"/>
-      <c r="AT21" s="5"/>
-      <c r="AU21" s="5"/>
-    </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5">
-        <v>415.79199999999997</v>
-      </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5">
-        <v>497.61200000000002</v>
-      </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="5"/>
-    </row>
-    <row r="23" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5">
-        <v>47.53</v>
-      </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5">
-        <v>66.751000000000005</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
-    </row>
-    <row r="24" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="5">
-        <f t="shared" ref="C24:F24" si="7">+C21-C22-C23</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="D27" s="25">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E27" s="25">
         <f t="shared" si="7"/>
-        <v>116.50899999999993</v>
-      </c>
-      <c r="F24" s="5">
+        <v>78.277999999999935</v>
+      </c>
+      <c r="F27" s="25">
         <f t="shared" si="7"/>
+        <v>1001.4900000000002</v>
+      </c>
+      <c r="G27" s="25">
+        <f>+G22+G23-G24-G25+G26</f>
+        <v>48.539999999999942</v>
+      </c>
+      <c r="H27" s="25">
+        <f t="shared" ref="H27:I27" si="8">+H22+H23-H24-H25+H26</f>
+        <v>986.53499999999997</v>
+      </c>
+      <c r="I27" s="25">
+        <f t="shared" si="8"/>
+        <v>68.018000000000072</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25"/>
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25"/>
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25"/>
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="25"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="25"/>
+      <c r="AY27" s="25"/>
+      <c r="AZ27" s="25"/>
+      <c r="BA27" s="25"/>
+      <c r="BB27" s="25"/>
+      <c r="BC27" s="25"/>
+      <c r="BD27" s="25"/>
+      <c r="BE27" s="25"/>
+      <c r="BF27" s="25"/>
+      <c r="BG27" s="25"/>
+      <c r="BH27" s="25"/>
+      <c r="BI27" s="25"/>
+      <c r="BJ27" s="25"/>
+      <c r="BK27" s="25"/>
+      <c r="BL27" s="25"/>
+      <c r="BM27" s="25"/>
+      <c r="BN27" s="25"/>
+      <c r="BO27" s="25"/>
+      <c r="BP27" s="25"/>
+      <c r="BQ27" s="25"/>
+      <c r="BR27" s="25"/>
+      <c r="BS27" s="25"/>
+      <c r="BT27" s="25"/>
+      <c r="BU27" s="25"/>
+      <c r="BV27" s="25"/>
+      <c r="BW27" s="25"/>
+      <c r="BX27" s="25"/>
+      <c r="BY27" s="25"/>
+    </row>
+    <row r="28" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25">
+        <v>26.161999999999999</v>
+      </c>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25">
+        <v>17.218</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25">
+        <v>20.116</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="25"/>
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="25"/>
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="25"/>
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="25"/>
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="25"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="25"/>
+      <c r="AY28" s="25"/>
+      <c r="AZ28" s="25"/>
+      <c r="BA28" s="25"/>
+      <c r="BB28" s="25"/>
+      <c r="BC28" s="25"/>
+      <c r="BD28" s="25"/>
+      <c r="BE28" s="25"/>
+      <c r="BF28" s="25"/>
+      <c r="BG28" s="25"/>
+      <c r="BH28" s="25"/>
+      <c r="BI28" s="25"/>
+      <c r="BJ28" s="25"/>
+      <c r="BK28" s="25"/>
+      <c r="BL28" s="25"/>
+      <c r="BM28" s="25"/>
+      <c r="BN28" s="25"/>
+      <c r="BO28" s="25"/>
+      <c r="BP28" s="25"/>
+      <c r="BQ28" s="25"/>
+      <c r="BR28" s="25"/>
+      <c r="BS28" s="25"/>
+      <c r="BT28" s="25"/>
+      <c r="BU28" s="25"/>
+      <c r="BV28" s="25"/>
+      <c r="BW28" s="25"/>
+      <c r="BX28" s="25"/>
+      <c r="BY28" s="25"/>
+    </row>
+    <row r="29" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="25">
+        <f t="shared" ref="C29:F29" si="9">+C27-C28</f>
         <v>0</v>
       </c>
-      <c r="G24" s="5">
-        <f>+G21-G22-G23</f>
-        <v>73.070999999999941</v>
-      </c>
-      <c r="H24" s="5">
-        <f t="shared" ref="H24" si="8">+H21-H22-H23</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-    </row>
-    <row r="25" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5">
-        <v>15.601000000000001</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5">
-        <v>12.106</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-      <c r="AT25" s="5"/>
-      <c r="AU25" s="5"/>
-    </row>
-    <row r="26" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5">
-        <v>44.591999999999999</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5">
-        <v>29.266999999999999</v>
-      </c>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="5"/>
-      <c r="AU26" s="5"/>
-    </row>
-    <row r="27" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5">
-        <v>7.0030000000000001</v>
-      </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5">
-        <v>7.6840000000000002</v>
-      </c>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
-    </row>
-    <row r="28" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5">
-        <v>-2.2370000000000001</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5">
-        <v>0.314</v>
-      </c>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-      <c r="AT28" s="5"/>
-      <c r="AU28" s="5"/>
-    </row>
-    <row r="29" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="5">
-        <f t="shared" ref="C29:F29" si="9">+C24+C25-C26-C27+C28</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="5">
+      <c r="D29" s="25">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="25">
         <f t="shared" si="9"/>
-        <v>78.277999999999935</v>
-      </c>
-      <c r="F29" s="5">
+        <v>52.115999999999936</v>
+      </c>
+      <c r="F29" s="25">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <f>+G24+G25-G26-G27+G28</f>
-        <v>48.539999999999942</v>
-      </c>
-      <c r="H29" s="5">
-        <f t="shared" ref="H29" si="10">+H24+H25-H26-H27+H28</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-    </row>
-    <row r="30" spans="2:47" x14ac:dyDescent="0.2">
+        <v>1001.4900000000002</v>
+      </c>
+      <c r="G29" s="25">
+        <f>+G27-G28</f>
+        <v>31.321999999999942</v>
+      </c>
+      <c r="H29" s="25">
+        <f t="shared" ref="H29:I29" si="10">+H27-H28</f>
+        <v>986.53499999999997</v>
+      </c>
+      <c r="I29" s="25">
+        <f t="shared" si="10"/>
+        <v>47.902000000000072</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="25"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="25"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AB29" s="25"/>
+      <c r="AC29" s="25"/>
+      <c r="AD29" s="25"/>
+      <c r="AE29" s="25"/>
+      <c r="AF29" s="25"/>
+      <c r="AG29" s="25"/>
+      <c r="AH29" s="25"/>
+      <c r="AI29" s="25"/>
+      <c r="AJ29" s="25"/>
+      <c r="AK29" s="25"/>
+      <c r="AL29" s="25"/>
+      <c r="AM29" s="25"/>
+      <c r="AN29" s="25"/>
+      <c r="AO29" s="25"/>
+      <c r="AP29" s="25"/>
+      <c r="AQ29" s="25"/>
+      <c r="AR29" s="25"/>
+      <c r="AS29" s="25"/>
+      <c r="AT29" s="25"/>
+      <c r="AU29" s="25"/>
+      <c r="AV29" s="25"/>
+      <c r="AW29" s="25"/>
+      <c r="AX29" s="25"/>
+      <c r="AY29" s="25"/>
+      <c r="AZ29" s="25"/>
+      <c r="BA29" s="25"/>
+      <c r="BB29" s="25"/>
+      <c r="BC29" s="25"/>
+      <c r="BD29" s="25"/>
+      <c r="BE29" s="25"/>
+      <c r="BF29" s="25"/>
+      <c r="BG29" s="25"/>
+      <c r="BH29" s="25"/>
+      <c r="BI29" s="25"/>
+      <c r="BJ29" s="25"/>
+      <c r="BK29" s="25"/>
+      <c r="BL29" s="25"/>
+      <c r="BM29" s="25"/>
+      <c r="BN29" s="25"/>
+      <c r="BO29" s="25"/>
+      <c r="BP29" s="25"/>
+      <c r="BQ29" s="25"/>
+      <c r="BR29" s="25"/>
+      <c r="BS29" s="25"/>
+      <c r="BT29" s="25"/>
+      <c r="BU29" s="25"/>
+      <c r="BV29" s="25"/>
+      <c r="BW29" s="25"/>
+      <c r="BX29" s="25"/>
+      <c r="BY29" s="25"/>
+    </row>
+    <row r="30" spans="2:77" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25">
+        <v>6.149</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25">
+        <v>6.2469999999999999</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25">
+        <v>4.819</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AA30" s="25"/>
+      <c r="AB30" s="25"/>
+      <c r="AC30" s="25"/>
+      <c r="AD30" s="25"/>
+      <c r="AE30" s="25"/>
+      <c r="AF30" s="25"/>
+      <c r="AG30" s="25"/>
+      <c r="AH30" s="25"/>
+      <c r="AI30" s="25"/>
+      <c r="AJ30" s="25"/>
+      <c r="AK30" s="25"/>
+      <c r="AL30" s="25"/>
+      <c r="AM30" s="25"/>
+      <c r="AN30" s="25"/>
+      <c r="AO30" s="25"/>
+      <c r="AP30" s="25"/>
+      <c r="AQ30" s="25"/>
+      <c r="AR30" s="25"/>
+      <c r="AS30" s="25"/>
+      <c r="AT30" s="25"/>
+      <c r="AU30" s="25"/>
+      <c r="AV30" s="25"/>
+      <c r="AW30" s="25"/>
+      <c r="AX30" s="25"/>
+      <c r="AY30" s="25"/>
+      <c r="AZ30" s="25"/>
+      <c r="BA30" s="25"/>
+      <c r="BB30" s="25"/>
+      <c r="BC30" s="25"/>
+      <c r="BD30" s="25"/>
+      <c r="BE30" s="25"/>
+      <c r="BF30" s="25"/>
+      <c r="BG30" s="25"/>
+      <c r="BH30" s="25"/>
+      <c r="BI30" s="25"/>
+      <c r="BJ30" s="25"/>
+      <c r="BK30" s="25"/>
+      <c r="BL30" s="25"/>
+      <c r="BM30" s="25"/>
+      <c r="BN30" s="25"/>
+      <c r="BO30" s="25"/>
+      <c r="BP30" s="25"/>
+      <c r="BQ30" s="25"/>
+      <c r="BR30" s="25"/>
+      <c r="BS30" s="25"/>
+      <c r="BT30" s="25"/>
+      <c r="BU30" s="25"/>
+      <c r="BV30" s="25"/>
+      <c r="BW30" s="25"/>
+      <c r="BX30" s="25"/>
+      <c r="BY30" s="25"/>
+    </row>
+    <row r="31" spans="2:77" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5">
-        <v>26.161999999999999</v>
-      </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5">
-        <v>17.218</v>
-      </c>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="5"/>
-      <c r="AT30" s="5"/>
-      <c r="AU30" s="5"/>
-    </row>
-    <row r="31" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="5">
+      <c r="C31" s="25">
         <f t="shared" ref="C31:F31" si="11">+C29-C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="25">
         <f t="shared" si="11"/>
-        <v>52.115999999999936</v>
-      </c>
-      <c r="F31" s="5">
+        <v>45.966999999999935</v>
+      </c>
+      <c r="F31" s="25">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="5">
+        <v>1001.4900000000002</v>
+      </c>
+      <c r="G31" s="25">
         <f>+G29-G30</f>
-        <v>31.321999999999942</v>
-      </c>
-      <c r="H31" s="5">
-        <f t="shared" ref="H31" si="12">+H29-H30</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
-    </row>
-    <row r="32" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>25.074999999999942</v>
+      </c>
+      <c r="H31" s="25">
+        <f t="shared" ref="H31:I31" si="12">+H29-H30</f>
+        <v>986.53499999999997</v>
+      </c>
+      <c r="I31" s="25">
+        <f t="shared" si="12"/>
+        <v>43.083000000000069</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="25"/>
+      <c r="W31" s="25"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="25"/>
+      <c r="AB31" s="25"/>
+      <c r="AC31" s="25"/>
+      <c r="AD31" s="25"/>
+      <c r="AE31" s="25"/>
+      <c r="AF31" s="25"/>
+      <c r="AG31" s="25"/>
+      <c r="AH31" s="25"/>
+      <c r="AI31" s="25"/>
+      <c r="AJ31" s="25"/>
+      <c r="AK31" s="25"/>
+      <c r="AL31" s="25"/>
+      <c r="AM31" s="25"/>
+      <c r="AN31" s="25"/>
+      <c r="AO31" s="25"/>
+      <c r="AP31" s="25"/>
+      <c r="AQ31" s="25"/>
+      <c r="AR31" s="25"/>
+      <c r="AS31" s="25"/>
+      <c r="AT31" s="25"/>
+      <c r="AU31" s="25"/>
+      <c r="AV31" s="25"/>
+      <c r="AW31" s="25"/>
+      <c r="AX31" s="25"/>
+      <c r="AY31" s="25"/>
+      <c r="AZ31" s="25"/>
+      <c r="BA31" s="25"/>
+      <c r="BB31" s="25"/>
+      <c r="BC31" s="25"/>
+      <c r="BD31" s="25"/>
+      <c r="BE31" s="25"/>
+      <c r="BF31" s="25"/>
+      <c r="BG31" s="25"/>
+      <c r="BH31" s="25"/>
+      <c r="BI31" s="25"/>
+      <c r="BJ31" s="25"/>
+      <c r="BK31" s="25"/>
+      <c r="BL31" s="25"/>
+      <c r="BM31" s="25"/>
+      <c r="BN31" s="25"/>
+      <c r="BO31" s="25"/>
+      <c r="BP31" s="25"/>
+      <c r="BQ31" s="25"/>
+      <c r="BR31" s="25"/>
+      <c r="BS31" s="25"/>
+      <c r="BT31" s="25"/>
+      <c r="BU31" s="25"/>
+      <c r="BV31" s="25"/>
+      <c r="BW31" s="25"/>
+      <c r="BX31" s="25"/>
+      <c r="BY31" s="25"/>
+    </row>
+    <row r="32" spans="2:77" x14ac:dyDescent="0.2">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
-      <c r="E32" s="5">
-        <v>6.149</v>
-      </c>
+      <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5">
-        <v>6.2469999999999999</v>
-      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -2733,36 +3500,41 @@
       <c r="AS32" s="5"/>
       <c r="AT32" s="5"/>
       <c r="AU32" s="5"/>
-    </row>
-    <row r="33" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+    </row>
+    <row r="33" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" s="5">
-        <f t="shared" ref="C33:F33" si="13">+C31-C32</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="5">
+        <v>71</v>
+      </c>
+      <c r="C33" s="24" t="e">
+        <f t="shared" ref="C33:H33" si="13">+C31/C34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="24" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="24" t="e">
         <f t="shared" si="13"/>
-        <v>45.966999999999935</v>
-      </c>
-      <c r="F33" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="24" t="e">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <f>+G31-G32</f>
-        <v>25.074999999999942</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" ref="H33" si="14">+H31-H32</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="24">
+        <f t="shared" si="13"/>
+        <v>0.10004765739736834</v>
+      </c>
+      <c r="H33" s="24" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="24">
+        <f>+I31/I34</f>
+        <v>0.1702725265478004</v>
+      </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -2801,15 +3573,24 @@
       <c r="AS33" s="5"/>
       <c r="AT33" s="5"/>
       <c r="AU33" s="5"/>
-    </row>
-    <row r="34" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV33" s="5"/>
+      <c r="AW33" s="5"/>
+    </row>
+    <row r="34" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="G34" s="5">
+        <v>250.63055600000001</v>
+      </c>
       <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="I34" s="5">
+        <v>253.02378999999999</v>
+      </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -2848,11 +3629,10 @@
       <c r="AS34" s="5"/>
       <c r="AT34" s="5"/>
       <c r="AU34" s="5"/>
-    </row>
-    <row r="35" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+    </row>
+    <row r="35" spans="2:49" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -2898,28 +3678,63 @@
       <c r="AS35" s="5"/>
       <c r="AT35" s="5"/>
       <c r="AU35" s="5"/>
-    </row>
-    <row r="36" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+    </row>
+    <row r="36" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B36" s="2" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
+      <c r="G36" s="9">
+        <f>+G12/E12-1</f>
+        <v>4.5717959280941578E-2</v>
+      </c>
+      <c r="H36" s="9">
+        <f t="shared" ref="H36:J41" si="14">+H12/F12-1</f>
+        <v>5.1890976676076894E-2</v>
+      </c>
+      <c r="I36" s="9">
+        <f t="shared" si="14"/>
+        <v>7.6704701033623035E-3</v>
+      </c>
+      <c r="J36" s="9">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
+      <c r="M36" s="9" t="e">
+        <f t="shared" ref="M36:N36" si="15">+M12/L12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N36" s="9" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O36" s="9" t="e">
+        <f t="shared" ref="O36:P36" si="16">+O12/N12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P36" s="9" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q36" s="9" t="e">
+        <f t="shared" ref="Q36:S40" si="17">+Q12/P12-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R36" s="9">
+        <f t="shared" si="17"/>
+        <v>4.8879170718825193E-2</v>
+      </c>
+      <c r="S36" s="9">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
@@ -2948,25 +3763,63 @@
       <c r="AS36" s="5"/>
       <c r="AT36" s="5"/>
       <c r="AU36" s="5"/>
-    </row>
-    <row r="37" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+    </row>
+    <row r="37" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
+      <c r="G37" s="9">
+        <f t="shared" ref="G37:G41" si="18">+G13/E13-1</f>
+        <v>-0.19439384202057486</v>
+      </c>
+      <c r="H37" s="9">
+        <f t="shared" si="14"/>
+        <v>-0.13687237182066869</v>
+      </c>
+      <c r="I37" s="9">
+        <f t="shared" si="14"/>
+        <v>-0.22532854289501625</v>
+      </c>
+      <c r="J37" s="9">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
+      <c r="M37" s="9" t="e">
+        <f t="shared" ref="M37:N37" si="19">+M13/L13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N37" s="9" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O37" s="9" t="e">
+        <f t="shared" ref="O37:P37" si="20">+O13/N13-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P37" s="9" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q37" s="9" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R37" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.16833064665310127</v>
+      </c>
+      <c r="S37" s="9">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
@@ -2995,49 +3848,63 @@
       <c r="AS37" s="5"/>
       <c r="AT37" s="5"/>
       <c r="AU37" s="5"/>
-    </row>
-    <row r="38" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV37" s="5"/>
+      <c r="AW37" s="5"/>
+    </row>
+    <row r="38" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="9" t="e">
-        <f t="shared" ref="K38:P38" si="15">+K11/J11-1</f>
+      <c r="G38" s="9">
+        <f t="shared" si="18"/>
+        <v>1.3196594548152776</v>
+      </c>
+      <c r="H38" s="9">
+        <f t="shared" si="14"/>
+        <v>-3.2037827374705619E-2</v>
+      </c>
+      <c r="I38" s="9">
+        <f t="shared" si="14"/>
+        <v>2.8432316674860125E-2</v>
+      </c>
+      <c r="J38" s="9">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="9" t="e">
+        <f t="shared" ref="M38:N38" si="21">+M14/L14-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L38" s="9" t="e">
-        <f t="shared" si="15"/>
+      <c r="N38" s="9" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M38" s="9" t="e">
-        <f t="shared" si="15"/>
+      <c r="O38" s="9" t="e">
+        <f t="shared" ref="O38:P38" si="22">+O14/N14-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="9" t="e">
-        <f t="shared" si="15"/>
+      <c r="P38" s="9" t="e">
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O38" s="9" t="e">
-        <f t="shared" si="15"/>
+      <c r="Q38" s="9" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P38" s="9">
-        <f t="shared" si="15"/>
-        <v>1.7660044150110465E-2</v>
-      </c>
-      <c r="Q38" s="9">
-        <f>+Q11/P11-1</f>
+      <c r="R38" s="9">
+        <f t="shared" si="17"/>
+        <v>0.33534014630770481</v>
+      </c>
+      <c r="S38" s="9">
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
@@ -3066,8 +3933,10 @@
       <c r="AS38" s="5"/>
       <c r="AT38" s="5"/>
       <c r="AU38" s="5"/>
-    </row>
-    <row r="39" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV38" s="5"/>
+      <c r="AW38" s="5"/>
+    </row>
+    <row r="39" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>65</v>
       </c>
@@ -3076,42 +3945,51 @@
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="9">
-        <f>+G14/E14-1</f>
-        <v>4.5717959280941578E-2</v>
-      </c>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="9" t="e">
-        <f t="shared" ref="K39:L39" si="16">+K14/J14-1</f>
+        <f t="shared" si="18"/>
+        <v>-1.69148237354938E-2</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" si="14"/>
+        <v>-0.14884359678620007</v>
+      </c>
+      <c r="I39" s="9">
+        <f t="shared" si="14"/>
+        <v>-6.6470850270059501E-2</v>
+      </c>
+      <c r="J39" s="9">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="9" t="e">
+        <f t="shared" ref="M39:N39" si="23">+M15/L15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L39" s="9" t="e">
-        <f t="shared" si="16"/>
+      <c r="N39" s="9" t="e">
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="9" t="e">
-        <f t="shared" ref="M39:N39" si="17">+M14/L14-1</f>
+      <c r="O39" s="9" t="e">
+        <f t="shared" ref="O39:P39" si="24">+O15/N15-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="9" t="e">
+      <c r="P39" s="9" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q39" s="9" t="e">
         <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O39" s="9" t="e">
-        <f t="shared" ref="O39:Q43" si="18">+O14/N14-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P39" s="9">
-        <f t="shared" si="18"/>
-        <v>4.8879170718825193E-2</v>
-      </c>
-      <c r="Q39" s="9">
-        <f t="shared" si="18"/>
+      <c r="R39" s="9">
+        <f t="shared" si="17"/>
+        <v>-8.4994635264196705E-2</v>
+      </c>
+      <c r="S39" s="9">
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
@@ -3140,8 +4018,10 @@
       <c r="AS39" s="5"/>
       <c r="AT39" s="5"/>
       <c r="AU39" s="5"/>
-    </row>
-    <row r="40" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV39" s="5"/>
+      <c r="AW39" s="5"/>
+    </row>
+    <row r="40" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>66</v>
       </c>
@@ -3150,42 +4030,51 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="9">
-        <f t="shared" ref="G40:G44" si="19">+G15/E15-1</f>
-        <v>-0.19439384202057486</v>
-      </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="9" t="e">
-        <f t="shared" ref="K40:L40" si="20">+K15/J15-1</f>
+        <f t="shared" si="18"/>
+        <v>-0.60428200203366855</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="14"/>
+        <v>-0.3128167994207095</v>
+      </c>
+      <c r="I40" s="9">
+        <f t="shared" si="14"/>
+        <v>0.19214846538187014</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="9" t="e">
+        <f t="shared" ref="M40:N40" si="25">+M16/L16-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L40" s="9" t="e">
-        <f t="shared" si="20"/>
+      <c r="N40" s="9" t="e">
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="9" t="e">
-        <f t="shared" ref="M40:N40" si="21">+M15/L15-1</f>
+      <c r="O40" s="9" t="e">
+        <f t="shared" ref="O40:P40" si="26">+O16/N16-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N40" s="9" t="e">
-        <f t="shared" si="21"/>
+      <c r="P40" s="9" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O40" s="9" t="e">
-        <f t="shared" si="18"/>
+      <c r="Q40" s="9" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P40" s="9">
-        <f t="shared" si="18"/>
-        <v>-0.16833064665310127</v>
-      </c>
-      <c r="Q40" s="9">
-        <f t="shared" si="18"/>
+      <c r="R40" s="9">
+        <f t="shared" si="17"/>
+        <v>-0.48405296870332881</v>
+      </c>
+      <c r="S40" s="9">
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
@@ -3214,126 +4103,163 @@
       <c r="AS40" s="5"/>
       <c r="AT40" s="5"/>
       <c r="AU40" s="5"/>
-    </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
+      <c r="AV40" s="5"/>
+      <c r="AW40" s="5"/>
+    </row>
+    <row r="41" spans="2:49" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="9">
-        <f t="shared" si="19"/>
-        <v>1.3196594548152776</v>
-      </c>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="9" t="e">
-        <f t="shared" ref="K41:L41" si="22">+K16/J16-1</f>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="27">
+        <f t="shared" si="18"/>
+        <v>6.31774889569785E-2</v>
+      </c>
+      <c r="H41" s="27">
+        <f t="shared" si="14"/>
+        <v>-1.4932750202198974E-2</v>
+      </c>
+      <c r="I41" s="27">
+        <f t="shared" si="14"/>
+        <v>-3.3768976952688767E-2</v>
+      </c>
+      <c r="J41" s="27">
+        <f t="shared" si="14"/>
+        <v>-1</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="27" t="e">
+        <f t="shared" ref="M41:N41" si="27">+M17/L17-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" s="9" t="e">
-        <f t="shared" si="22"/>
+      <c r="N41" s="27" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="9" t="e">
-        <f t="shared" ref="M41:N41" si="23">+M16/L16-1</f>
+      <c r="O41" s="27" t="e">
+        <f t="shared" ref="O41:P41" si="28">+O17/N17-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N41" s="9" t="e">
-        <f t="shared" si="23"/>
+      <c r="P41" s="27" t="e">
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O41" s="9" t="e">
-        <f t="shared" si="18"/>
+      <c r="Q41" s="27" t="e">
+        <f>+Q17/P17-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P41" s="9">
-        <f t="shared" si="18"/>
-        <v>0.33534014630770481</v>
-      </c>
-      <c r="Q41" s="9">
-        <f t="shared" si="18"/>
+      <c r="R41" s="27">
+        <f t="shared" ref="R41:S41" si="29">+R17/Q17-1</f>
+        <v>2.2103920665732302E-2</v>
+      </c>
+      <c r="S41" s="27">
+        <f t="shared" si="29"/>
         <v>-1</v>
       </c>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-      <c r="AT41" s="5"/>
-      <c r="AU41" s="5"/>
-    </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="8"/>
+      <c r="Y41" s="8"/>
+      <c r="Z41" s="8"/>
+      <c r="AA41" s="8"/>
+      <c r="AB41" s="8"/>
+      <c r="AC41" s="8"/>
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="8"/>
+      <c r="AF41" s="8"/>
+      <c r="AG41" s="8"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="8"/>
+      <c r="AK41" s="8"/>
+      <c r="AL41" s="8"/>
+      <c r="AM41" s="8"/>
+      <c r="AN41" s="8"/>
+      <c r="AO41" s="8"/>
+      <c r="AP41" s="8"/>
+      <c r="AQ41" s="8"/>
+      <c r="AR41" s="8"/>
+      <c r="AS41" s="8"/>
+      <c r="AT41" s="8"/>
+      <c r="AU41" s="8"/>
+      <c r="AV41" s="8"/>
+      <c r="AW41" s="8"/>
+    </row>
+    <row r="42" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="C42" s="9" t="e">
+        <f t="shared" ref="C42:F42" si="30">+C19/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D42" s="9" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" si="30"/>
+        <v>0.64207432736952952</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
       <c r="G42" s="9">
-        <f t="shared" si="19"/>
-        <v>-1.69148237354938E-2</v>
-      </c>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="9" t="e">
-        <f t="shared" ref="K42:L42" si="24">+K17/J17-1</f>
+        <f>+G19/G17</f>
+        <v>0.66391629309913847</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" ref="H42:I42" si="31">+H19/H17</f>
+        <v>1</v>
+      </c>
+      <c r="I42" s="9">
+        <f t="shared" si="31"/>
+        <v>0.67482887602539643</v>
+      </c>
+      <c r="J42" s="9" t="e">
+        <f t="shared" ref="J42" si="32">+J19/J17</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="K42" s="5"/>
       <c r="L42" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="H42:S42" si="33">+L19/L17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M42" s="9" t="e">
-        <f t="shared" ref="M42:N42" si="25">+M17/L17-1</f>
+        <f t="shared" ref="M42:N42" si="34">+M19/M17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N42" s="9" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="9" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P42" s="9">
-        <f t="shared" si="18"/>
-        <v>-8.4994635264196705E-2</v>
+      <c r="P42" s="9" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q42" s="9">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="9" t="e">
+        <f t="shared" si="33"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T42" s="5"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
@@ -3362,52 +4288,78 @@
       <c r="AS42" s="5"/>
       <c r="AT42" s="5"/>
       <c r="AU42" s="5"/>
-    </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV42" s="5"/>
+      <c r="AW42" s="5"/>
+    </row>
+    <row r="43" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="C43" s="9" t="e">
+        <f t="shared" ref="C43:F43" si="35">+C22/C17</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D43" s="9" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="35"/>
+        <v>0.12901593362116975</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
       <c r="G43" s="9">
-        <f t="shared" si="19"/>
-        <v>-0.60428200203366855</v>
-      </c>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="9" t="e">
-        <f t="shared" ref="K43:L43" si="26">+K18/J18-1</f>
+        <f>+G22/G17</f>
+        <v>7.6106745879647317E-2</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" ref="H43:I43" si="36">+H22/H17</f>
+        <v>1</v>
+      </c>
+      <c r="I43" s="9">
+        <f t="shared" si="36"/>
+        <v>6.612769351830898E-2</v>
+      </c>
+      <c r="J43" s="9" t="e">
+        <f t="shared" ref="J43" si="37">+J22/J17</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="K43" s="5"/>
       <c r="L43" s="9" t="e">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="H43:S43" si="38">+L22/L17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M43" s="9" t="e">
-        <f t="shared" ref="M43:N43" si="27">+M18/L18-1</f>
+        <f t="shared" ref="M43:N43" si="39">+M22/M17</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N43" s="9" t="e">
-        <f t="shared" si="27"/>
+        <f t="shared" si="39"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="9" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P43" s="9">
-        <f t="shared" si="18"/>
-        <v>-0.48405296870332881</v>
+      <c r="P43" s="9" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q43" s="9">
-        <f t="shared" si="18"/>
-        <v>-1</v>
-      </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="9">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="9" t="e">
+        <f t="shared" si="38"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T43" s="5"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
@@ -3436,52 +4388,78 @@
       <c r="AS43" s="5"/>
       <c r="AT43" s="5"/>
       <c r="AU43" s="5"/>
-    </row>
-    <row r="44" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV43" s="5"/>
+      <c r="AW43" s="5"/>
+    </row>
+    <row r="44" spans="2:49" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="C44" s="9" t="e">
+        <f t="shared" ref="C44:F44" si="40">+C30/C29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D44" s="9" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" s="9">
+        <f t="shared" si="40"/>
+        <v>0.11798679867986814</v>
+      </c>
+      <c r="F44" s="9">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
       <c r="G44" s="9">
-        <f t="shared" si="19"/>
-        <v>6.31774889569785E-2</v>
-      </c>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="9" t="e">
-        <f t="shared" ref="K44:L44" si="28">+K19/J19-1</f>
+        <f>+G30/G29</f>
+        <v>0.19944447991826866</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" ref="H44:I44" si="41">+H30/H29</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="9">
+        <f t="shared" si="41"/>
+        <v>0.10060122750615826</v>
+      </c>
+      <c r="J44" s="9" t="e">
+        <f t="shared" ref="J44" si="42">+J30/J29</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="K44" s="5"/>
       <c r="L44" s="9" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="H44:S44" si="43">+L30/L29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M44" s="9" t="e">
-        <f t="shared" ref="M44:N44" si="29">+M19/L19-1</f>
+        <f t="shared" ref="M44:N44" si="44">+M30/M29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N44" s="9" t="e">
-        <f t="shared" si="29"/>
+        <f t="shared" si="44"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="9" t="e">
-        <f>+O19/N19-1</f>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P44" s="9">
-        <f t="shared" ref="P44:Q44" si="30">+P19/O19-1</f>
-        <v>2.2103920665732302E-2</v>
-      </c>
-      <c r="Q44" s="9">
-        <f t="shared" si="30"/>
-        <v>-1</v>
-      </c>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
+      <c r="P44" s="9" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q44" s="9" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R44" s="9" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S44" s="9" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T44" s="5"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
@@ -3510,68 +4488,25 @@
       <c r="AS44" s="5"/>
       <c r="AT44" s="5"/>
       <c r="AU44" s="5"/>
-    </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="9" t="e">
-        <f t="shared" ref="C45:F45" si="31">+C21/C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D45" s="9" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E45" s="9">
-        <f t="shared" si="31"/>
-        <v>0.64207432736952952</v>
-      </c>
-      <c r="F45" s="9" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="9">
-        <f>+G21/G19</f>
-        <v>0.66391629309913847</v>
-      </c>
-      <c r="H45" s="9" t="e">
-        <f t="shared" ref="H45:Q45" si="32">+H21/H19</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+    </row>
+    <row r="45" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
       <c r="I45" s="5"/>
-      <c r="J45" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K45" s="9" t="e">
-        <f t="shared" ref="K45:L45" si="33">+K21/K19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L45" s="9" t="e">
-        <f t="shared" si="33"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M45" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N45" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O45" s="9">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="P45" s="9">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="9" t="e">
-        <f t="shared" si="32"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
       <c r="T45" s="5"/>
@@ -3602,68 +4537,25 @@
       <c r="AS45" s="5"/>
       <c r="AT45" s="5"/>
       <c r="AU45" s="5"/>
-    </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B46" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="9" t="e">
-        <f t="shared" ref="C46:F46" si="34">+C24/C19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D46" s="9" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E46" s="9">
-        <f t="shared" si="34"/>
-        <v>0.12901593362116975</v>
-      </c>
-      <c r="F46" s="9" t="e">
-        <f t="shared" si="34"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="9">
-        <f>+G24/G19</f>
-        <v>7.6106745879647317E-2</v>
-      </c>
-      <c r="H46" s="9" t="e">
-        <f t="shared" ref="H46:Q46" si="35">+H24/H19</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+    </row>
+    <row r="46" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
       <c r="I46" s="5"/>
-      <c r="J46" s="9" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K46" s="9" t="e">
-        <f t="shared" ref="K46:L46" si="36">+K24/K19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L46" s="9" t="e">
-        <f t="shared" si="36"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M46" s="9" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N46" s="9" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O46" s="9">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="9">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="9" t="e">
-        <f t="shared" si="35"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
       <c r="T46" s="5"/>
@@ -3694,68 +4586,25 @@
       <c r="AS46" s="5"/>
       <c r="AT46" s="5"/>
       <c r="AU46" s="5"/>
-    </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47" s="9" t="e">
-        <f t="shared" ref="C47:F47" si="37">+C32/C31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D47" s="9" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E47" s="9">
-        <f t="shared" si="37"/>
-        <v>0.11798679867986814</v>
-      </c>
-      <c r="F47" s="9" t="e">
-        <f t="shared" si="37"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G47" s="9">
-        <f>+G32/G31</f>
-        <v>0.19944447991826866</v>
-      </c>
-      <c r="H47" s="9" t="e">
-        <f t="shared" ref="H47:Q47" si="38">+H32/H31</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="AV46" s="5"/>
+      <c r="AW46" s="5"/>
+    </row>
+    <row r="47" spans="2:49" x14ac:dyDescent="0.2">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K47" s="9" t="e">
-        <f t="shared" ref="K47:L47" si="39">+K32/K31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L47" s="9" t="e">
-        <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M47" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N47" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O47" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P47" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q47" s="9" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
       <c r="T47" s="5"/>
@@ -3786,8 +4635,10 @@
       <c r="AS47" s="5"/>
       <c r="AT47" s="5"/>
       <c r="AU47" s="5"/>
-    </row>
-    <row r="48" spans="2:47" x14ac:dyDescent="0.2">
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+    </row>
+    <row r="48" spans="2:49" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -3833,8 +4684,10 @@
       <c r="AS48" s="5"/>
       <c r="AT48" s="5"/>
       <c r="AU48" s="5"/>
-    </row>
-    <row r="49" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+    </row>
+    <row r="49" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -3880,8 +4733,10 @@
       <c r="AS49" s="5"/>
       <c r="AT49" s="5"/>
       <c r="AU49" s="5"/>
-    </row>
-    <row r="50" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+    </row>
+    <row r="50" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -3927,8 +4782,10 @@
       <c r="AS50" s="5"/>
       <c r="AT50" s="5"/>
       <c r="AU50" s="5"/>
-    </row>
-    <row r="51" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV50" s="5"/>
+      <c r="AW50" s="5"/>
+    </row>
+    <row r="51" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -3974,8 +4831,10 @@
       <c r="AS51" s="5"/>
       <c r="AT51" s="5"/>
       <c r="AU51" s="5"/>
-    </row>
-    <row r="52" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV51" s="5"/>
+      <c r="AW51" s="5"/>
+    </row>
+    <row r="52" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -4021,8 +4880,10 @@
       <c r="AS52" s="5"/>
       <c r="AT52" s="5"/>
       <c r="AU52" s="5"/>
-    </row>
-    <row r="53" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+    </row>
+    <row r="53" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -4068,8 +4929,10 @@
       <c r="AS53" s="5"/>
       <c r="AT53" s="5"/>
       <c r="AU53" s="5"/>
-    </row>
-    <row r="54" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="5"/>
+    </row>
+    <row r="54" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -4115,8 +4978,10 @@
       <c r="AS54" s="5"/>
       <c r="AT54" s="5"/>
       <c r="AU54" s="5"/>
-    </row>
-    <row r="55" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV54" s="5"/>
+      <c r="AW54" s="5"/>
+    </row>
+    <row r="55" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -4162,8 +5027,10 @@
       <c r="AS55" s="5"/>
       <c r="AT55" s="5"/>
       <c r="AU55" s="5"/>
-    </row>
-    <row r="56" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV55" s="5"/>
+      <c r="AW55" s="5"/>
+    </row>
+    <row r="56" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -4209,8 +5076,10 @@
       <c r="AS56" s="5"/>
       <c r="AT56" s="5"/>
       <c r="AU56" s="5"/>
-    </row>
-    <row r="57" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV56" s="5"/>
+      <c r="AW56" s="5"/>
+    </row>
+    <row r="57" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -4256,8 +5125,10 @@
       <c r="AS57" s="5"/>
       <c r="AT57" s="5"/>
       <c r="AU57" s="5"/>
-    </row>
-    <row r="58" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV57" s="5"/>
+      <c r="AW57" s="5"/>
+    </row>
+    <row r="58" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -4303,8 +5174,10 @@
       <c r="AS58" s="5"/>
       <c r="AT58" s="5"/>
       <c r="AU58" s="5"/>
-    </row>
-    <row r="59" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV58" s="5"/>
+      <c r="AW58" s="5"/>
+    </row>
+    <row r="59" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -4350,8 +5223,10 @@
       <c r="AS59" s="5"/>
       <c r="AT59" s="5"/>
       <c r="AU59" s="5"/>
-    </row>
-    <row r="60" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV59" s="5"/>
+      <c r="AW59" s="5"/>
+    </row>
+    <row r="60" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -4397,8 +5272,10 @@
       <c r="AS60" s="5"/>
       <c r="AT60" s="5"/>
       <c r="AU60" s="5"/>
-    </row>
-    <row r="61" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV60" s="5"/>
+      <c r="AW60" s="5"/>
+    </row>
+    <row r="61" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -4444,8 +5321,10 @@
       <c r="AS61" s="5"/>
       <c r="AT61" s="5"/>
       <c r="AU61" s="5"/>
-    </row>
-    <row r="62" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV61" s="5"/>
+      <c r="AW61" s="5"/>
+    </row>
+    <row r="62" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -4491,8 +5370,10 @@
       <c r="AS62" s="5"/>
       <c r="AT62" s="5"/>
       <c r="AU62" s="5"/>
-    </row>
-    <row r="63" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV62" s="5"/>
+      <c r="AW62" s="5"/>
+    </row>
+    <row r="63" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -4538,8 +5419,10 @@
       <c r="AS63" s="5"/>
       <c r="AT63" s="5"/>
       <c r="AU63" s="5"/>
-    </row>
-    <row r="64" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV63" s="5"/>
+      <c r="AW63" s="5"/>
+    </row>
+    <row r="64" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -4585,8 +5468,10 @@
       <c r="AS64" s="5"/>
       <c r="AT64" s="5"/>
       <c r="AU64" s="5"/>
-    </row>
-    <row r="65" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV64" s="5"/>
+      <c r="AW64" s="5"/>
+    </row>
+    <row r="65" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -4632,8 +5517,10 @@
       <c r="AS65" s="5"/>
       <c r="AT65" s="5"/>
       <c r="AU65" s="5"/>
-    </row>
-    <row r="66" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV65" s="5"/>
+      <c r="AW65" s="5"/>
+    </row>
+    <row r="66" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -4679,8 +5566,10 @@
       <c r="AS66" s="5"/>
       <c r="AT66" s="5"/>
       <c r="AU66" s="5"/>
-    </row>
-    <row r="67" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV66" s="5"/>
+      <c r="AW66" s="5"/>
+    </row>
+    <row r="67" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -4726,8 +5615,10 @@
       <c r="AS67" s="5"/>
       <c r="AT67" s="5"/>
       <c r="AU67" s="5"/>
-    </row>
-    <row r="68" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV67" s="5"/>
+      <c r="AW67" s="5"/>
+    </row>
+    <row r="68" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -4773,8 +5664,10 @@
       <c r="AS68" s="5"/>
       <c r="AT68" s="5"/>
       <c r="AU68" s="5"/>
-    </row>
-    <row r="69" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV68" s="5"/>
+      <c r="AW68" s="5"/>
+    </row>
+    <row r="69" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -4820,8 +5713,10 @@
       <c r="AS69" s="5"/>
       <c r="AT69" s="5"/>
       <c r="AU69" s="5"/>
-    </row>
-    <row r="70" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV69" s="5"/>
+      <c r="AW69" s="5"/>
+    </row>
+    <row r="70" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -4867,8 +5762,10 @@
       <c r="AS70" s="5"/>
       <c r="AT70" s="5"/>
       <c r="AU70" s="5"/>
-    </row>
-    <row r="71" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV70" s="5"/>
+      <c r="AW70" s="5"/>
+    </row>
+    <row r="71" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -4914,8 +5811,10 @@
       <c r="AS71" s="5"/>
       <c r="AT71" s="5"/>
       <c r="AU71" s="5"/>
-    </row>
-    <row r="72" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV71" s="5"/>
+      <c r="AW71" s="5"/>
+    </row>
+    <row r="72" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -4961,8 +5860,10 @@
       <c r="AS72" s="5"/>
       <c r="AT72" s="5"/>
       <c r="AU72" s="5"/>
-    </row>
-    <row r="73" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV72" s="5"/>
+      <c r="AW72" s="5"/>
+    </row>
+    <row r="73" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -5008,8 +5909,10 @@
       <c r="AS73" s="5"/>
       <c r="AT73" s="5"/>
       <c r="AU73" s="5"/>
-    </row>
-    <row r="74" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV73" s="5"/>
+      <c r="AW73" s="5"/>
+    </row>
+    <row r="74" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -5055,8 +5958,10 @@
       <c r="AS74" s="5"/>
       <c r="AT74" s="5"/>
       <c r="AU74" s="5"/>
-    </row>
-    <row r="75" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV74" s="5"/>
+      <c r="AW74" s="5"/>
+    </row>
+    <row r="75" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -5102,8 +6007,10 @@
       <c r="AS75" s="5"/>
       <c r="AT75" s="5"/>
       <c r="AU75" s="5"/>
-    </row>
-    <row r="76" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV75" s="5"/>
+      <c r="AW75" s="5"/>
+    </row>
+    <row r="76" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -5149,8 +6056,10 @@
       <c r="AS76" s="5"/>
       <c r="AT76" s="5"/>
       <c r="AU76" s="5"/>
-    </row>
-    <row r="77" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV76" s="5"/>
+      <c r="AW76" s="5"/>
+    </row>
+    <row r="77" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -5196,8 +6105,10 @@
       <c r="AS77" s="5"/>
       <c r="AT77" s="5"/>
       <c r="AU77" s="5"/>
-    </row>
-    <row r="78" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV77" s="5"/>
+      <c r="AW77" s="5"/>
+    </row>
+    <row r="78" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -5243,8 +6154,10 @@
       <c r="AS78" s="5"/>
       <c r="AT78" s="5"/>
       <c r="AU78" s="5"/>
-    </row>
-    <row r="79" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV78" s="5"/>
+      <c r="AW78" s="5"/>
+    </row>
+    <row r="79" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -5290,8 +6203,10 @@
       <c r="AS79" s="5"/>
       <c r="AT79" s="5"/>
       <c r="AU79" s="5"/>
-    </row>
-    <row r="80" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV79" s="5"/>
+      <c r="AW79" s="5"/>
+    </row>
+    <row r="80" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -5337,8 +6252,10 @@
       <c r="AS80" s="5"/>
       <c r="AT80" s="5"/>
       <c r="AU80" s="5"/>
-    </row>
-    <row r="81" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV80" s="5"/>
+      <c r="AW80" s="5"/>
+    </row>
+    <row r="81" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -5384,8 +6301,10 @@
       <c r="AS81" s="5"/>
       <c r="AT81" s="5"/>
       <c r="AU81" s="5"/>
-    </row>
-    <row r="82" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV81" s="5"/>
+      <c r="AW81" s="5"/>
+    </row>
+    <row r="82" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -5431,8 +6350,10 @@
       <c r="AS82" s="5"/>
       <c r="AT82" s="5"/>
       <c r="AU82" s="5"/>
-    </row>
-    <row r="83" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV82" s="5"/>
+      <c r="AW82" s="5"/>
+    </row>
+    <row r="83" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -5478,8 +6399,10 @@
       <c r="AS83" s="5"/>
       <c r="AT83" s="5"/>
       <c r="AU83" s="5"/>
-    </row>
-    <row r="84" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV83" s="5"/>
+      <c r="AW83" s="5"/>
+    </row>
+    <row r="84" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -5525,8 +6448,10 @@
       <c r="AS84" s="5"/>
       <c r="AT84" s="5"/>
       <c r="AU84" s="5"/>
-    </row>
-    <row r="85" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV84" s="5"/>
+      <c r="AW84" s="5"/>
+    </row>
+    <row r="85" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -5572,8 +6497,10 @@
       <c r="AS85" s="5"/>
       <c r="AT85" s="5"/>
       <c r="AU85" s="5"/>
-    </row>
-    <row r="86" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV85" s="5"/>
+      <c r="AW85" s="5"/>
+    </row>
+    <row r="86" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -5619,8 +6546,10 @@
       <c r="AS86" s="5"/>
       <c r="AT86" s="5"/>
       <c r="AU86" s="5"/>
-    </row>
-    <row r="87" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV86" s="5"/>
+      <c r="AW86" s="5"/>
+    </row>
+    <row r="87" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -5666,8 +6595,10 @@
       <c r="AS87" s="5"/>
       <c r="AT87" s="5"/>
       <c r="AU87" s="5"/>
-    </row>
-    <row r="88" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV87" s="5"/>
+      <c r="AW87" s="5"/>
+    </row>
+    <row r="88" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -5713,8 +6644,10 @@
       <c r="AS88" s="5"/>
       <c r="AT88" s="5"/>
       <c r="AU88" s="5"/>
-    </row>
-    <row r="89" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV88" s="5"/>
+      <c r="AW88" s="5"/>
+    </row>
+    <row r="89" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -5760,8 +6693,10 @@
       <c r="AS89" s="5"/>
       <c r="AT89" s="5"/>
       <c r="AU89" s="5"/>
-    </row>
-    <row r="90" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV89" s="5"/>
+      <c r="AW89" s="5"/>
+    </row>
+    <row r="90" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -5807,8 +6742,10 @@
       <c r="AS90" s="5"/>
       <c r="AT90" s="5"/>
       <c r="AU90" s="5"/>
-    </row>
-    <row r="91" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV90" s="5"/>
+      <c r="AW90" s="5"/>
+    </row>
+    <row r="91" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -5854,8 +6791,10 @@
       <c r="AS91" s="5"/>
       <c r="AT91" s="5"/>
       <c r="AU91" s="5"/>
-    </row>
-    <row r="92" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV91" s="5"/>
+      <c r="AW91" s="5"/>
+    </row>
+    <row r="92" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -5901,8 +6840,10 @@
       <c r="AS92" s="5"/>
       <c r="AT92" s="5"/>
       <c r="AU92" s="5"/>
-    </row>
-    <row r="93" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV92" s="5"/>
+      <c r="AW92" s="5"/>
+    </row>
+    <row r="93" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -5948,8 +6889,10 @@
       <c r="AS93" s="5"/>
       <c r="AT93" s="5"/>
       <c r="AU93" s="5"/>
-    </row>
-    <row r="94" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV93" s="5"/>
+      <c r="AW93" s="5"/>
+    </row>
+    <row r="94" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -5995,8 +6938,10 @@
       <c r="AS94" s="5"/>
       <c r="AT94" s="5"/>
       <c r="AU94" s="5"/>
-    </row>
-    <row r="95" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV94" s="5"/>
+      <c r="AW94" s="5"/>
+    </row>
+    <row r="95" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -6042,8 +6987,10 @@
       <c r="AS95" s="5"/>
       <c r="AT95" s="5"/>
       <c r="AU95" s="5"/>
-    </row>
-    <row r="96" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV95" s="5"/>
+      <c r="AW95" s="5"/>
+    </row>
+    <row r="96" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -6089,8 +7036,10 @@
       <c r="AS96" s="5"/>
       <c r="AT96" s="5"/>
       <c r="AU96" s="5"/>
-    </row>
-    <row r="97" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV96" s="5"/>
+      <c r="AW96" s="5"/>
+    </row>
+    <row r="97" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -6136,8 +7085,10 @@
       <c r="AS97" s="5"/>
       <c r="AT97" s="5"/>
       <c r="AU97" s="5"/>
-    </row>
-    <row r="98" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV97" s="5"/>
+      <c r="AW97" s="5"/>
+    </row>
+    <row r="98" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -6183,8 +7134,10 @@
       <c r="AS98" s="5"/>
       <c r="AT98" s="5"/>
       <c r="AU98" s="5"/>
-    </row>
-    <row r="99" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV98" s="5"/>
+      <c r="AW98" s="5"/>
+    </row>
+    <row r="99" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -6230,8 +7183,10 @@
       <c r="AS99" s="5"/>
       <c r="AT99" s="5"/>
       <c r="AU99" s="5"/>
-    </row>
-    <row r="100" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV99" s="5"/>
+      <c r="AW99" s="5"/>
+    </row>
+    <row r="100" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -6277,8 +7232,10 @@
       <c r="AS100" s="5"/>
       <c r="AT100" s="5"/>
       <c r="AU100" s="5"/>
-    </row>
-    <row r="101" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV100" s="5"/>
+      <c r="AW100" s="5"/>
+    </row>
+    <row r="101" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -6324,8 +7281,10 @@
       <c r="AS101" s="5"/>
       <c r="AT101" s="5"/>
       <c r="AU101" s="5"/>
-    </row>
-    <row r="102" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV101" s="5"/>
+      <c r="AW101" s="5"/>
+    </row>
+    <row r="102" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -6371,8 +7330,10 @@
       <c r="AS102" s="5"/>
       <c r="AT102" s="5"/>
       <c r="AU102" s="5"/>
-    </row>
-    <row r="103" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV102" s="5"/>
+      <c r="AW102" s="5"/>
+    </row>
+    <row r="103" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -6418,8 +7379,10 @@
       <c r="AS103" s="5"/>
       <c r="AT103" s="5"/>
       <c r="AU103" s="5"/>
-    </row>
-    <row r="104" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV103" s="5"/>
+      <c r="AW103" s="5"/>
+    </row>
+    <row r="104" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -6465,8 +7428,10 @@
       <c r="AS104" s="5"/>
       <c r="AT104" s="5"/>
       <c r="AU104" s="5"/>
-    </row>
-    <row r="105" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV104" s="5"/>
+      <c r="AW104" s="5"/>
+    </row>
+    <row r="105" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -6512,8 +7477,10 @@
       <c r="AS105" s="5"/>
       <c r="AT105" s="5"/>
       <c r="AU105" s="5"/>
-    </row>
-    <row r="106" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV105" s="5"/>
+      <c r="AW105" s="5"/>
+    </row>
+    <row r="106" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -6559,8 +7526,10 @@
       <c r="AS106" s="5"/>
       <c r="AT106" s="5"/>
       <c r="AU106" s="5"/>
-    </row>
-    <row r="107" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV106" s="5"/>
+      <c r="AW106" s="5"/>
+    </row>
+    <row r="107" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -6606,8 +7575,10 @@
       <c r="AS107" s="5"/>
       <c r="AT107" s="5"/>
       <c r="AU107" s="5"/>
-    </row>
-    <row r="108" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV107" s="5"/>
+      <c r="AW107" s="5"/>
+    </row>
+    <row r="108" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -6653,8 +7624,10 @@
       <c r="AS108" s="5"/>
       <c r="AT108" s="5"/>
       <c r="AU108" s="5"/>
-    </row>
-    <row r="109" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV108" s="5"/>
+      <c r="AW108" s="5"/>
+    </row>
+    <row r="109" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -6700,8 +7673,10 @@
       <c r="AS109" s="5"/>
       <c r="AT109" s="5"/>
       <c r="AU109" s="5"/>
-    </row>
-    <row r="110" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV109" s="5"/>
+      <c r="AW109" s="5"/>
+    </row>
+    <row r="110" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -6747,8 +7722,10 @@
       <c r="AS110" s="5"/>
       <c r="AT110" s="5"/>
       <c r="AU110" s="5"/>
-    </row>
-    <row r="111" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV110" s="5"/>
+      <c r="AW110" s="5"/>
+    </row>
+    <row r="111" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -6794,8 +7771,10 @@
       <c r="AS111" s="5"/>
       <c r="AT111" s="5"/>
       <c r="AU111" s="5"/>
-    </row>
-    <row r="112" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV111" s="5"/>
+      <c r="AW111" s="5"/>
+    </row>
+    <row r="112" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -6841,8 +7820,10 @@
       <c r="AS112" s="5"/>
       <c r="AT112" s="5"/>
       <c r="AU112" s="5"/>
-    </row>
-    <row r="113" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV112" s="5"/>
+      <c r="AW112" s="5"/>
+    </row>
+    <row r="113" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -6888,8 +7869,10 @@
       <c r="AS113" s="5"/>
       <c r="AT113" s="5"/>
       <c r="AU113" s="5"/>
-    </row>
-    <row r="114" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV113" s="5"/>
+      <c r="AW113" s="5"/>
+    </row>
+    <row r="114" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -6935,8 +7918,10 @@
       <c r="AS114" s="5"/>
       <c r="AT114" s="5"/>
       <c r="AU114" s="5"/>
-    </row>
-    <row r="115" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV114" s="5"/>
+      <c r="AW114" s="5"/>
+    </row>
+    <row r="115" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -6982,8 +7967,10 @@
       <c r="AS115" s="5"/>
       <c r="AT115" s="5"/>
       <c r="AU115" s="5"/>
-    </row>
-    <row r="116" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV115" s="5"/>
+      <c r="AW115" s="5"/>
+    </row>
+    <row r="116" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -7029,8 +8016,10 @@
       <c r="AS116" s="5"/>
       <c r="AT116" s="5"/>
       <c r="AU116" s="5"/>
-    </row>
-    <row r="117" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV116" s="5"/>
+      <c r="AW116" s="5"/>
+    </row>
+    <row r="117" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -7076,8 +8065,10 @@
       <c r="AS117" s="5"/>
       <c r="AT117" s="5"/>
       <c r="AU117" s="5"/>
-    </row>
-    <row r="118" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV117" s="5"/>
+      <c r="AW117" s="5"/>
+    </row>
+    <row r="118" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -7123,8 +8114,10 @@
       <c r="AS118" s="5"/>
       <c r="AT118" s="5"/>
       <c r="AU118" s="5"/>
-    </row>
-    <row r="119" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV118" s="5"/>
+      <c r="AW118" s="5"/>
+    </row>
+    <row r="119" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -7170,8 +8163,10 @@
       <c r="AS119" s="5"/>
       <c r="AT119" s="5"/>
       <c r="AU119" s="5"/>
-    </row>
-    <row r="120" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV119" s="5"/>
+      <c r="AW119" s="5"/>
+    </row>
+    <row r="120" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -7217,8 +8212,10 @@
       <c r="AS120" s="5"/>
       <c r="AT120" s="5"/>
       <c r="AU120" s="5"/>
-    </row>
-    <row r="121" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV120" s="5"/>
+      <c r="AW120" s="5"/>
+    </row>
+    <row r="121" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -7264,8 +8261,10 @@
       <c r="AS121" s="5"/>
       <c r="AT121" s="5"/>
       <c r="AU121" s="5"/>
-    </row>
-    <row r="122" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV121" s="5"/>
+      <c r="AW121" s="5"/>
+    </row>
+    <row r="122" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -7311,8 +8310,10 @@
       <c r="AS122" s="5"/>
       <c r="AT122" s="5"/>
       <c r="AU122" s="5"/>
-    </row>
-    <row r="123" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV122" s="5"/>
+      <c r="AW122" s="5"/>
+    </row>
+    <row r="123" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -7358,8 +8359,10 @@
       <c r="AS123" s="5"/>
       <c r="AT123" s="5"/>
       <c r="AU123" s="5"/>
-    </row>
-    <row r="124" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV123" s="5"/>
+      <c r="AW123" s="5"/>
+    </row>
+    <row r="124" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -7405,8 +8408,10 @@
       <c r="AS124" s="5"/>
       <c r="AT124" s="5"/>
       <c r="AU124" s="5"/>
-    </row>
-    <row r="125" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV124" s="5"/>
+      <c r="AW124" s="5"/>
+    </row>
+    <row r="125" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -7452,8 +8457,10 @@
       <c r="AS125" s="5"/>
       <c r="AT125" s="5"/>
       <c r="AU125" s="5"/>
-    </row>
-    <row r="126" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV125" s="5"/>
+      <c r="AW125" s="5"/>
+    </row>
+    <row r="126" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -7499,8 +8506,10 @@
       <c r="AS126" s="5"/>
       <c r="AT126" s="5"/>
       <c r="AU126" s="5"/>
-    </row>
-    <row r="127" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV126" s="5"/>
+      <c r="AW126" s="5"/>
+    </row>
+    <row r="127" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -7546,8 +8555,10 @@
       <c r="AS127" s="5"/>
       <c r="AT127" s="5"/>
       <c r="AU127" s="5"/>
-    </row>
-    <row r="128" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV127" s="5"/>
+      <c r="AW127" s="5"/>
+    </row>
+    <row r="128" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -7593,8 +8604,10 @@
       <c r="AS128" s="5"/>
       <c r="AT128" s="5"/>
       <c r="AU128" s="5"/>
-    </row>
-    <row r="129" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV128" s="5"/>
+      <c r="AW128" s="5"/>
+    </row>
+    <row r="129" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -7640,8 +8653,10 @@
       <c r="AS129" s="5"/>
       <c r="AT129" s="5"/>
       <c r="AU129" s="5"/>
-    </row>
-    <row r="130" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV129" s="5"/>
+      <c r="AW129" s="5"/>
+    </row>
+    <row r="130" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -7687,8 +8702,10 @@
       <c r="AS130" s="5"/>
       <c r="AT130" s="5"/>
       <c r="AU130" s="5"/>
-    </row>
-    <row r="131" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV130" s="5"/>
+      <c r="AW130" s="5"/>
+    </row>
+    <row r="131" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -7734,8 +8751,10 @@
       <c r="AS131" s="5"/>
       <c r="AT131" s="5"/>
       <c r="AU131" s="5"/>
-    </row>
-    <row r="132" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV131" s="5"/>
+      <c r="AW131" s="5"/>
+    </row>
+    <row r="132" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -7781,8 +8800,10 @@
       <c r="AS132" s="5"/>
       <c r="AT132" s="5"/>
       <c r="AU132" s="5"/>
-    </row>
-    <row r="133" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV132" s="5"/>
+      <c r="AW132" s="5"/>
+    </row>
+    <row r="133" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -7828,8 +8849,10 @@
       <c r="AS133" s="5"/>
       <c r="AT133" s="5"/>
       <c r="AU133" s="5"/>
-    </row>
-    <row r="134" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV133" s="5"/>
+      <c r="AW133" s="5"/>
+    </row>
+    <row r="134" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -7875,8 +8898,10 @@
       <c r="AS134" s="5"/>
       <c r="AT134" s="5"/>
       <c r="AU134" s="5"/>
-    </row>
-    <row r="135" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV134" s="5"/>
+      <c r="AW134" s="5"/>
+    </row>
+    <row r="135" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -7922,8 +8947,10 @@
       <c r="AS135" s="5"/>
       <c r="AT135" s="5"/>
       <c r="AU135" s="5"/>
-    </row>
-    <row r="136" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV135" s="5"/>
+      <c r="AW135" s="5"/>
+    </row>
+    <row r="136" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -7969,8 +8996,10 @@
       <c r="AS136" s="5"/>
       <c r="AT136" s="5"/>
       <c r="AU136" s="5"/>
-    </row>
-    <row r="137" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV136" s="5"/>
+      <c r="AW136" s="5"/>
+    </row>
+    <row r="137" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -8016,8 +9045,10 @@
       <c r="AS137" s="5"/>
       <c r="AT137" s="5"/>
       <c r="AU137" s="5"/>
-    </row>
-    <row r="138" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV137" s="5"/>
+      <c r="AW137" s="5"/>
+    </row>
+    <row r="138" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -8063,8 +9094,10 @@
       <c r="AS138" s="5"/>
       <c r="AT138" s="5"/>
       <c r="AU138" s="5"/>
-    </row>
-    <row r="139" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV138" s="5"/>
+      <c r="AW138" s="5"/>
+    </row>
+    <row r="139" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -8110,8 +9143,10 @@
       <c r="AS139" s="5"/>
       <c r="AT139" s="5"/>
       <c r="AU139" s="5"/>
-    </row>
-    <row r="140" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV139" s="5"/>
+      <c r="AW139" s="5"/>
+    </row>
+    <row r="140" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -8157,8 +9192,10 @@
       <c r="AS140" s="5"/>
       <c r="AT140" s="5"/>
       <c r="AU140" s="5"/>
-    </row>
-    <row r="141" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV140" s="5"/>
+      <c r="AW140" s="5"/>
+    </row>
+    <row r="141" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -8204,8 +9241,10 @@
       <c r="AS141" s="5"/>
       <c r="AT141" s="5"/>
       <c r="AU141" s="5"/>
-    </row>
-    <row r="142" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV141" s="5"/>
+      <c r="AW141" s="5"/>
+    </row>
+    <row r="142" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -8251,8 +9290,10 @@
       <c r="AS142" s="5"/>
       <c r="AT142" s="5"/>
       <c r="AU142" s="5"/>
-    </row>
-    <row r="143" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV142" s="5"/>
+      <c r="AW142" s="5"/>
+    </row>
+    <row r="143" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -8298,8 +9339,10 @@
       <c r="AS143" s="5"/>
       <c r="AT143" s="5"/>
       <c r="AU143" s="5"/>
-    </row>
-    <row r="144" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV143" s="5"/>
+      <c r="AW143" s="5"/>
+    </row>
+    <row r="144" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -8345,8 +9388,10 @@
       <c r="AS144" s="5"/>
       <c r="AT144" s="5"/>
       <c r="AU144" s="5"/>
-    </row>
-    <row r="145" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV144" s="5"/>
+      <c r="AW144" s="5"/>
+    </row>
+    <row r="145" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -8392,8 +9437,10 @@
       <c r="AS145" s="5"/>
       <c r="AT145" s="5"/>
       <c r="AU145" s="5"/>
-    </row>
-    <row r="146" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV145" s="5"/>
+      <c r="AW145" s="5"/>
+    </row>
+    <row r="146" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -8439,8 +9486,10 @@
       <c r="AS146" s="5"/>
       <c r="AT146" s="5"/>
       <c r="AU146" s="5"/>
-    </row>
-    <row r="147" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV146" s="5"/>
+      <c r="AW146" s="5"/>
+    </row>
+    <row r="147" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -8486,8 +9535,10 @@
       <c r="AS147" s="5"/>
       <c r="AT147" s="5"/>
       <c r="AU147" s="5"/>
-    </row>
-    <row r="148" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV147" s="5"/>
+      <c r="AW147" s="5"/>
+    </row>
+    <row r="148" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -8533,8 +9584,10 @@
       <c r="AS148" s="5"/>
       <c r="AT148" s="5"/>
       <c r="AU148" s="5"/>
-    </row>
-    <row r="149" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV148" s="5"/>
+      <c r="AW148" s="5"/>
+    </row>
+    <row r="149" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -8580,8 +9633,10 @@
       <c r="AS149" s="5"/>
       <c r="AT149" s="5"/>
       <c r="AU149" s="5"/>
-    </row>
-    <row r="150" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV149" s="5"/>
+      <c r="AW149" s="5"/>
+    </row>
+    <row r="150" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -8627,8 +9682,10 @@
       <c r="AS150" s="5"/>
       <c r="AT150" s="5"/>
       <c r="AU150" s="5"/>
-    </row>
-    <row r="151" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV150" s="5"/>
+      <c r="AW150" s="5"/>
+    </row>
+    <row r="151" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -8674,8 +9731,10 @@
       <c r="AS151" s="5"/>
       <c r="AT151" s="5"/>
       <c r="AU151" s="5"/>
-    </row>
-    <row r="152" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV151" s="5"/>
+      <c r="AW151" s="5"/>
+    </row>
+    <row r="152" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -8721,8 +9780,10 @@
       <c r="AS152" s="5"/>
       <c r="AT152" s="5"/>
       <c r="AU152" s="5"/>
-    </row>
-    <row r="153" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV152" s="5"/>
+      <c r="AW152" s="5"/>
+    </row>
+    <row r="153" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -8768,8 +9829,10 @@
       <c r="AS153" s="5"/>
       <c r="AT153" s="5"/>
       <c r="AU153" s="5"/>
-    </row>
-    <row r="154" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV153" s="5"/>
+      <c r="AW153" s="5"/>
+    </row>
+    <row r="154" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -8815,8 +9878,10 @@
       <c r="AS154" s="5"/>
       <c r="AT154" s="5"/>
       <c r="AU154" s="5"/>
-    </row>
-    <row r="155" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV154" s="5"/>
+      <c r="AW154" s="5"/>
+    </row>
+    <row r="155" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -8862,8 +9927,10 @@
       <c r="AS155" s="5"/>
       <c r="AT155" s="5"/>
       <c r="AU155" s="5"/>
-    </row>
-    <row r="156" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV155" s="5"/>
+      <c r="AW155" s="5"/>
+    </row>
+    <row r="156" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -8909,8 +9976,10 @@
       <c r="AS156" s="5"/>
       <c r="AT156" s="5"/>
       <c r="AU156" s="5"/>
-    </row>
-    <row r="157" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV156" s="5"/>
+      <c r="AW156" s="5"/>
+    </row>
+    <row r="157" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -8956,8 +10025,10 @@
       <c r="AS157" s="5"/>
       <c r="AT157" s="5"/>
       <c r="AU157" s="5"/>
-    </row>
-    <row r="158" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV157" s="5"/>
+      <c r="AW157" s="5"/>
+    </row>
+    <row r="158" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -9003,8 +10074,10 @@
       <c r="AS158" s="5"/>
       <c r="AT158" s="5"/>
       <c r="AU158" s="5"/>
-    </row>
-    <row r="159" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV158" s="5"/>
+      <c r="AW158" s="5"/>
+    </row>
+    <row r="159" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -9050,8 +10123,10 @@
       <c r="AS159" s="5"/>
       <c r="AT159" s="5"/>
       <c r="AU159" s="5"/>
-    </row>
-    <row r="160" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV159" s="5"/>
+      <c r="AW159" s="5"/>
+    </row>
+    <row r="160" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -9097,8 +10172,10 @@
       <c r="AS160" s="5"/>
       <c r="AT160" s="5"/>
       <c r="AU160" s="5"/>
-    </row>
-    <row r="161" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV160" s="5"/>
+      <c r="AW160" s="5"/>
+    </row>
+    <row r="161" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -9144,8 +10221,10 @@
       <c r="AS161" s="5"/>
       <c r="AT161" s="5"/>
       <c r="AU161" s="5"/>
-    </row>
-    <row r="162" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV161" s="5"/>
+      <c r="AW161" s="5"/>
+    </row>
+    <row r="162" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -9191,8 +10270,10 @@
       <c r="AS162" s="5"/>
       <c r="AT162" s="5"/>
       <c r="AU162" s="5"/>
-    </row>
-    <row r="163" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV162" s="5"/>
+      <c r="AW162" s="5"/>
+    </row>
+    <row r="163" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -9238,8 +10319,10 @@
       <c r="AS163" s="5"/>
       <c r="AT163" s="5"/>
       <c r="AU163" s="5"/>
-    </row>
-    <row r="164" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV163" s="5"/>
+      <c r="AW163" s="5"/>
+    </row>
+    <row r="164" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -9285,8 +10368,10 @@
       <c r="AS164" s="5"/>
       <c r="AT164" s="5"/>
       <c r="AU164" s="5"/>
-    </row>
-    <row r="165" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV164" s="5"/>
+      <c r="AW164" s="5"/>
+    </row>
+    <row r="165" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -9332,8 +10417,10 @@
       <c r="AS165" s="5"/>
       <c r="AT165" s="5"/>
       <c r="AU165" s="5"/>
-    </row>
-    <row r="166" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV165" s="5"/>
+      <c r="AW165" s="5"/>
+    </row>
+    <row r="166" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -9379,8 +10466,10 @@
       <c r="AS166" s="5"/>
       <c r="AT166" s="5"/>
       <c r="AU166" s="5"/>
-    </row>
-    <row r="167" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV166" s="5"/>
+      <c r="AW166" s="5"/>
+    </row>
+    <row r="167" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -9426,8 +10515,10 @@
       <c r="AS167" s="5"/>
       <c r="AT167" s="5"/>
       <c r="AU167" s="5"/>
-    </row>
-    <row r="168" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV167" s="5"/>
+      <c r="AW167" s="5"/>
+    </row>
+    <row r="168" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -9473,8 +10564,10 @@
       <c r="AS168" s="5"/>
       <c r="AT168" s="5"/>
       <c r="AU168" s="5"/>
-    </row>
-    <row r="169" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV168" s="5"/>
+      <c r="AW168" s="5"/>
+    </row>
+    <row r="169" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -9520,8 +10613,10 @@
       <c r="AS169" s="5"/>
       <c r="AT169" s="5"/>
       <c r="AU169" s="5"/>
-    </row>
-    <row r="170" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV169" s="5"/>
+      <c r="AW169" s="5"/>
+    </row>
+    <row r="170" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
@@ -9567,8 +10662,10 @@
       <c r="AS170" s="5"/>
       <c r="AT170" s="5"/>
       <c r="AU170" s="5"/>
-    </row>
-    <row r="171" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV170" s="5"/>
+      <c r="AW170" s="5"/>
+    </row>
+    <row r="171" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
@@ -9614,8 +10711,10 @@
       <c r="AS171" s="5"/>
       <c r="AT171" s="5"/>
       <c r="AU171" s="5"/>
-    </row>
-    <row r="172" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV171" s="5"/>
+      <c r="AW171" s="5"/>
+    </row>
+    <row r="172" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
@@ -9661,8 +10760,10 @@
       <c r="AS172" s="5"/>
       <c r="AT172" s="5"/>
       <c r="AU172" s="5"/>
-    </row>
-    <row r="173" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV172" s="5"/>
+      <c r="AW172" s="5"/>
+    </row>
+    <row r="173" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
@@ -9708,8 +10809,10 @@
       <c r="AS173" s="5"/>
       <c r="AT173" s="5"/>
       <c r="AU173" s="5"/>
-    </row>
-    <row r="174" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV173" s="5"/>
+      <c r="AW173" s="5"/>
+    </row>
+    <row r="174" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
@@ -9755,8 +10858,10 @@
       <c r="AS174" s="5"/>
       <c r="AT174" s="5"/>
       <c r="AU174" s="5"/>
-    </row>
-    <row r="175" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV174" s="5"/>
+      <c r="AW174" s="5"/>
+    </row>
+    <row r="175" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
@@ -9802,8 +10907,10 @@
       <c r="AS175" s="5"/>
       <c r="AT175" s="5"/>
       <c r="AU175" s="5"/>
-    </row>
-    <row r="176" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV175" s="5"/>
+      <c r="AW175" s="5"/>
+    </row>
+    <row r="176" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
@@ -9849,8 +10956,10 @@
       <c r="AS176" s="5"/>
       <c r="AT176" s="5"/>
       <c r="AU176" s="5"/>
-    </row>
-    <row r="177" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV176" s="5"/>
+      <c r="AW176" s="5"/>
+    </row>
+    <row r="177" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
@@ -9896,8 +11005,10 @@
       <c r="AS177" s="5"/>
       <c r="AT177" s="5"/>
       <c r="AU177" s="5"/>
-    </row>
-    <row r="178" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV177" s="5"/>
+      <c r="AW177" s="5"/>
+    </row>
+    <row r="178" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
@@ -9943,8 +11054,10 @@
       <c r="AS178" s="5"/>
       <c r="AT178" s="5"/>
       <c r="AU178" s="5"/>
-    </row>
-    <row r="179" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV178" s="5"/>
+      <c r="AW178" s="5"/>
+    </row>
+    <row r="179" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -9990,8 +11103,10 @@
       <c r="AS179" s="5"/>
       <c r="AT179" s="5"/>
       <c r="AU179" s="5"/>
-    </row>
-    <row r="180" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV179" s="5"/>
+      <c r="AW179" s="5"/>
+    </row>
+    <row r="180" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
@@ -10037,8 +11152,10 @@
       <c r="AS180" s="5"/>
       <c r="AT180" s="5"/>
       <c r="AU180" s="5"/>
-    </row>
-    <row r="181" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV180" s="5"/>
+      <c r="AW180" s="5"/>
+    </row>
+    <row r="181" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
@@ -10084,8 +11201,10 @@
       <c r="AS181" s="5"/>
       <c r="AT181" s="5"/>
       <c r="AU181" s="5"/>
-    </row>
-    <row r="182" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV181" s="5"/>
+      <c r="AW181" s="5"/>
+    </row>
+    <row r="182" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
@@ -10131,8 +11250,10 @@
       <c r="AS182" s="5"/>
       <c r="AT182" s="5"/>
       <c r="AU182" s="5"/>
-    </row>
-    <row r="183" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV182" s="5"/>
+      <c r="AW182" s="5"/>
+    </row>
+    <row r="183" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
@@ -10178,8 +11299,10 @@
       <c r="AS183" s="5"/>
       <c r="AT183" s="5"/>
       <c r="AU183" s="5"/>
-    </row>
-    <row r="184" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV183" s="5"/>
+      <c r="AW183" s="5"/>
+    </row>
+    <row r="184" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
@@ -10225,8 +11348,10 @@
       <c r="AS184" s="5"/>
       <c r="AT184" s="5"/>
       <c r="AU184" s="5"/>
-    </row>
-    <row r="185" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV184" s="5"/>
+      <c r="AW184" s="5"/>
+    </row>
+    <row r="185" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
@@ -10272,8 +11397,10 @@
       <c r="AS185" s="5"/>
       <c r="AT185" s="5"/>
       <c r="AU185" s="5"/>
-    </row>
-    <row r="186" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV185" s="5"/>
+      <c r="AW185" s="5"/>
+    </row>
+    <row r="186" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
@@ -10319,8 +11446,10 @@
       <c r="AS186" s="5"/>
       <c r="AT186" s="5"/>
       <c r="AU186" s="5"/>
-    </row>
-    <row r="187" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV186" s="5"/>
+      <c r="AW186" s="5"/>
+    </row>
+    <row r="187" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
@@ -10366,8 +11495,10 @@
       <c r="AS187" s="5"/>
       <c r="AT187" s="5"/>
       <c r="AU187" s="5"/>
-    </row>
-    <row r="188" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV187" s="5"/>
+      <c r="AW187" s="5"/>
+    </row>
+    <row r="188" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
@@ -10413,8 +11544,10 @@
       <c r="AS188" s="5"/>
       <c r="AT188" s="5"/>
       <c r="AU188" s="5"/>
-    </row>
-    <row r="189" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV188" s="5"/>
+      <c r="AW188" s="5"/>
+    </row>
+    <row r="189" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
@@ -10460,8 +11593,10 @@
       <c r="AS189" s="5"/>
       <c r="AT189" s="5"/>
       <c r="AU189" s="5"/>
-    </row>
-    <row r="190" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV189" s="5"/>
+      <c r="AW189" s="5"/>
+    </row>
+    <row r="190" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
@@ -10507,8 +11642,10 @@
       <c r="AS190" s="5"/>
       <c r="AT190" s="5"/>
       <c r="AU190" s="5"/>
-    </row>
-    <row r="191" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV190" s="5"/>
+      <c r="AW190" s="5"/>
+    </row>
+    <row r="191" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
@@ -10554,8 +11691,10 @@
       <c r="AS191" s="5"/>
       <c r="AT191" s="5"/>
       <c r="AU191" s="5"/>
-    </row>
-    <row r="192" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV191" s="5"/>
+      <c r="AW191" s="5"/>
+    </row>
+    <row r="192" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
@@ -10601,8 +11740,10 @@
       <c r="AS192" s="5"/>
       <c r="AT192" s="5"/>
       <c r="AU192" s="5"/>
-    </row>
-    <row r="193" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV192" s="5"/>
+      <c r="AW192" s="5"/>
+    </row>
+    <row r="193" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
@@ -10648,8 +11789,10 @@
       <c r="AS193" s="5"/>
       <c r="AT193" s="5"/>
       <c r="AU193" s="5"/>
-    </row>
-    <row r="194" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV193" s="5"/>
+      <c r="AW193" s="5"/>
+    </row>
+    <row r="194" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
@@ -10695,8 +11838,10 @@
       <c r="AS194" s="5"/>
       <c r="AT194" s="5"/>
       <c r="AU194" s="5"/>
-    </row>
-    <row r="195" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV194" s="5"/>
+      <c r="AW194" s="5"/>
+    </row>
+    <row r="195" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
@@ -10742,8 +11887,10 @@
       <c r="AS195" s="5"/>
       <c r="AT195" s="5"/>
       <c r="AU195" s="5"/>
-    </row>
-    <row r="196" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV195" s="5"/>
+      <c r="AW195" s="5"/>
+    </row>
+    <row r="196" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
@@ -10789,8 +11936,10 @@
       <c r="AS196" s="5"/>
       <c r="AT196" s="5"/>
       <c r="AU196" s="5"/>
-    </row>
-    <row r="197" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV196" s="5"/>
+      <c r="AW196" s="5"/>
+    </row>
+    <row r="197" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
@@ -10836,8 +11985,10 @@
       <c r="AS197" s="5"/>
       <c r="AT197" s="5"/>
       <c r="AU197" s="5"/>
-    </row>
-    <row r="198" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV197" s="5"/>
+      <c r="AW197" s="5"/>
+    </row>
+    <row r="198" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
@@ -10883,8 +12034,10 @@
       <c r="AS198" s="5"/>
       <c r="AT198" s="5"/>
       <c r="AU198" s="5"/>
-    </row>
-    <row r="199" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV198" s="5"/>
+      <c r="AW198" s="5"/>
+    </row>
+    <row r="199" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
@@ -10930,8 +12083,10 @@
       <c r="AS199" s="5"/>
       <c r="AT199" s="5"/>
       <c r="AU199" s="5"/>
-    </row>
-    <row r="200" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV199" s="5"/>
+      <c r="AW199" s="5"/>
+    </row>
+    <row r="200" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
@@ -10977,8 +12132,10 @@
       <c r="AS200" s="5"/>
       <c r="AT200" s="5"/>
       <c r="AU200" s="5"/>
-    </row>
-    <row r="201" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV200" s="5"/>
+      <c r="AW200" s="5"/>
+    </row>
+    <row r="201" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
@@ -11024,8 +12181,10 @@
       <c r="AS201" s="5"/>
       <c r="AT201" s="5"/>
       <c r="AU201" s="5"/>
-    </row>
-    <row r="202" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV201" s="5"/>
+      <c r="AW201" s="5"/>
+    </row>
+    <row r="202" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
@@ -11071,8 +12230,10 @@
       <c r="AS202" s="5"/>
       <c r="AT202" s="5"/>
       <c r="AU202" s="5"/>
-    </row>
-    <row r="203" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV202" s="5"/>
+      <c r="AW202" s="5"/>
+    </row>
+    <row r="203" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
@@ -11118,8 +12279,10 @@
       <c r="AS203" s="5"/>
       <c r="AT203" s="5"/>
       <c r="AU203" s="5"/>
-    </row>
-    <row r="204" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV203" s="5"/>
+      <c r="AW203" s="5"/>
+    </row>
+    <row r="204" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
@@ -11165,8 +12328,10 @@
       <c r="AS204" s="5"/>
       <c r="AT204" s="5"/>
       <c r="AU204" s="5"/>
-    </row>
-    <row r="205" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV204" s="5"/>
+      <c r="AW204" s="5"/>
+    </row>
+    <row r="205" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
@@ -11212,8 +12377,10 @@
       <c r="AS205" s="5"/>
       <c r="AT205" s="5"/>
       <c r="AU205" s="5"/>
-    </row>
-    <row r="206" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV205" s="5"/>
+      <c r="AW205" s="5"/>
+    </row>
+    <row r="206" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
@@ -11259,8 +12426,10 @@
       <c r="AS206" s="5"/>
       <c r="AT206" s="5"/>
       <c r="AU206" s="5"/>
-    </row>
-    <row r="207" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV206" s="5"/>
+      <c r="AW206" s="5"/>
+    </row>
+    <row r="207" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
@@ -11306,8 +12475,10 @@
       <c r="AS207" s="5"/>
       <c r="AT207" s="5"/>
       <c r="AU207" s="5"/>
-    </row>
-    <row r="208" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV207" s="5"/>
+      <c r="AW207" s="5"/>
+    </row>
+    <row r="208" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
@@ -11353,8 +12524,10 @@
       <c r="AS208" s="5"/>
       <c r="AT208" s="5"/>
       <c r="AU208" s="5"/>
-    </row>
-    <row r="209" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV208" s="5"/>
+      <c r="AW208" s="5"/>
+    </row>
+    <row r="209" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
@@ -11400,8 +12573,10 @@
       <c r="AS209" s="5"/>
       <c r="AT209" s="5"/>
       <c r="AU209" s="5"/>
-    </row>
-    <row r="210" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV209" s="5"/>
+      <c r="AW209" s="5"/>
+    </row>
+    <row r="210" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
@@ -11447,8 +12622,10 @@
       <c r="AS210" s="5"/>
       <c r="AT210" s="5"/>
       <c r="AU210" s="5"/>
-    </row>
-    <row r="211" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV210" s="5"/>
+      <c r="AW210" s="5"/>
+    </row>
+    <row r="211" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
@@ -11494,8 +12671,10 @@
       <c r="AS211" s="5"/>
       <c r="AT211" s="5"/>
       <c r="AU211" s="5"/>
-    </row>
-    <row r="212" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV211" s="5"/>
+      <c r="AW211" s="5"/>
+    </row>
+    <row r="212" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
@@ -11541,8 +12720,10 @@
       <c r="AS212" s="5"/>
       <c r="AT212" s="5"/>
       <c r="AU212" s="5"/>
-    </row>
-    <row r="213" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV212" s="5"/>
+      <c r="AW212" s="5"/>
+    </row>
+    <row r="213" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
@@ -11588,8 +12769,10 @@
       <c r="AS213" s="5"/>
       <c r="AT213" s="5"/>
       <c r="AU213" s="5"/>
-    </row>
-    <row r="214" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV213" s="5"/>
+      <c r="AW213" s="5"/>
+    </row>
+    <row r="214" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
@@ -11635,8 +12818,10 @@
       <c r="AS214" s="5"/>
       <c r="AT214" s="5"/>
       <c r="AU214" s="5"/>
-    </row>
-    <row r="215" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV214" s="5"/>
+      <c r="AW214" s="5"/>
+    </row>
+    <row r="215" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
@@ -11682,8 +12867,10 @@
       <c r="AS215" s="5"/>
       <c r="AT215" s="5"/>
       <c r="AU215" s="5"/>
-    </row>
-    <row r="216" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV215" s="5"/>
+      <c r="AW215" s="5"/>
+    </row>
+    <row r="216" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
@@ -11729,8 +12916,10 @@
       <c r="AS216" s="5"/>
       <c r="AT216" s="5"/>
       <c r="AU216" s="5"/>
-    </row>
-    <row r="217" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV216" s="5"/>
+      <c r="AW216" s="5"/>
+    </row>
+    <row r="217" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
@@ -11776,8 +12965,10 @@
       <c r="AS217" s="5"/>
       <c r="AT217" s="5"/>
       <c r="AU217" s="5"/>
-    </row>
-    <row r="218" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV217" s="5"/>
+      <c r="AW217" s="5"/>
+    </row>
+    <row r="218" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
@@ -11823,8 +13014,10 @@
       <c r="AS218" s="5"/>
       <c r="AT218" s="5"/>
       <c r="AU218" s="5"/>
-    </row>
-    <row r="219" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV218" s="5"/>
+      <c r="AW218" s="5"/>
+    </row>
+    <row r="219" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
@@ -11870,8 +13063,10 @@
       <c r="AS219" s="5"/>
       <c r="AT219" s="5"/>
       <c r="AU219" s="5"/>
-    </row>
-    <row r="220" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV219" s="5"/>
+      <c r="AW219" s="5"/>
+    </row>
+    <row r="220" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
@@ -11917,8 +13112,10 @@
       <c r="AS220" s="5"/>
       <c r="AT220" s="5"/>
       <c r="AU220" s="5"/>
-    </row>
-    <row r="221" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV220" s="5"/>
+      <c r="AW220" s="5"/>
+    </row>
+    <row r="221" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
@@ -11964,8 +13161,10 @@
       <c r="AS221" s="5"/>
       <c r="AT221" s="5"/>
       <c r="AU221" s="5"/>
-    </row>
-    <row r="222" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV221" s="5"/>
+      <c r="AW221" s="5"/>
+    </row>
+    <row r="222" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
@@ -12011,8 +13210,10 @@
       <c r="AS222" s="5"/>
       <c r="AT222" s="5"/>
       <c r="AU222" s="5"/>
-    </row>
-    <row r="223" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV222" s="5"/>
+      <c r="AW222" s="5"/>
+    </row>
+    <row r="223" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
@@ -12058,8 +13259,10 @@
       <c r="AS223" s="5"/>
       <c r="AT223" s="5"/>
       <c r="AU223" s="5"/>
-    </row>
-    <row r="224" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV223" s="5"/>
+      <c r="AW223" s="5"/>
+    </row>
+    <row r="224" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
@@ -12105,8 +13308,10 @@
       <c r="AS224" s="5"/>
       <c r="AT224" s="5"/>
       <c r="AU224" s="5"/>
-    </row>
-    <row r="225" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV224" s="5"/>
+      <c r="AW224" s="5"/>
+    </row>
+    <row r="225" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
@@ -12152,8 +13357,10 @@
       <c r="AS225" s="5"/>
       <c r="AT225" s="5"/>
       <c r="AU225" s="5"/>
-    </row>
-    <row r="226" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV225" s="5"/>
+      <c r="AW225" s="5"/>
+    </row>
+    <row r="226" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
@@ -12199,8 +13406,10 @@
       <c r="AS226" s="5"/>
       <c r="AT226" s="5"/>
       <c r="AU226" s="5"/>
-    </row>
-    <row r="227" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV226" s="5"/>
+      <c r="AW226" s="5"/>
+    </row>
+    <row r="227" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
@@ -12246,8 +13455,10 @@
       <c r="AS227" s="5"/>
       <c r="AT227" s="5"/>
       <c r="AU227" s="5"/>
-    </row>
-    <row r="228" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV227" s="5"/>
+      <c r="AW227" s="5"/>
+    </row>
+    <row r="228" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
@@ -12293,8 +13504,10 @@
       <c r="AS228" s="5"/>
       <c r="AT228" s="5"/>
       <c r="AU228" s="5"/>
-    </row>
-    <row r="229" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV228" s="5"/>
+      <c r="AW228" s="5"/>
+    </row>
+    <row r="229" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
@@ -12340,8 +13553,10 @@
       <c r="AS229" s="5"/>
       <c r="AT229" s="5"/>
       <c r="AU229" s="5"/>
-    </row>
-    <row r="230" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV229" s="5"/>
+      <c r="AW229" s="5"/>
+    </row>
+    <row r="230" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
@@ -12387,8 +13602,10 @@
       <c r="AS230" s="5"/>
       <c r="AT230" s="5"/>
       <c r="AU230" s="5"/>
-    </row>
-    <row r="231" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV230" s="5"/>
+      <c r="AW230" s="5"/>
+    </row>
+    <row r="231" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
@@ -12434,8 +13651,10 @@
       <c r="AS231" s="5"/>
       <c r="AT231" s="5"/>
       <c r="AU231" s="5"/>
-    </row>
-    <row r="232" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV231" s="5"/>
+      <c r="AW231" s="5"/>
+    </row>
+    <row r="232" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
@@ -12481,8 +13700,10 @@
       <c r="AS232" s="5"/>
       <c r="AT232" s="5"/>
       <c r="AU232" s="5"/>
-    </row>
-    <row r="233" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV232" s="5"/>
+      <c r="AW232" s="5"/>
+    </row>
+    <row r="233" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
@@ -12528,8 +13749,10 @@
       <c r="AS233" s="5"/>
       <c r="AT233" s="5"/>
       <c r="AU233" s="5"/>
-    </row>
-    <row r="234" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV233" s="5"/>
+      <c r="AW233" s="5"/>
+    </row>
+    <row r="234" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
@@ -12575,8 +13798,10 @@
       <c r="AS234" s="5"/>
       <c r="AT234" s="5"/>
       <c r="AU234" s="5"/>
-    </row>
-    <row r="235" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AV234" s="5"/>
+      <c r="AW234" s="5"/>
+    </row>
+    <row r="235" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
@@ -12623,7 +13848,7 @@
       <c r="AT235" s="5"/>
       <c r="AU235" s="5"/>
     </row>
-    <row r="236" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="236" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
@@ -12670,7 +13895,7 @@
       <c r="AT236" s="5"/>
       <c r="AU236" s="5"/>
     </row>
-    <row r="237" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="237" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
@@ -12717,7 +13942,7 @@
       <c r="AT237" s="5"/>
       <c r="AU237" s="5"/>
     </row>
-    <row r="238" spans="3:47" x14ac:dyDescent="0.2">
+    <row r="238" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
@@ -12761,8 +13986,10 @@
       <c r="AQ238" s="5"/>
       <c r="AR238" s="5"/>
       <c r="AS238" s="5"/>
-    </row>
-    <row r="239" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AT238" s="5"/>
+      <c r="AU238" s="5"/>
+    </row>
+    <row r="239" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
@@ -12806,8 +14033,10 @@
       <c r="AQ239" s="5"/>
       <c r="AR239" s="5"/>
       <c r="AS239" s="5"/>
-    </row>
-    <row r="240" spans="3:47" x14ac:dyDescent="0.2">
+      <c r="AT239" s="5"/>
+      <c r="AU239" s="5"/>
+    </row>
+    <row r="240" spans="3:49" x14ac:dyDescent="0.2">
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
@@ -12851,8 +14080,10 @@
       <c r="AQ240" s="5"/>
       <c r="AR240" s="5"/>
       <c r="AS240" s="5"/>
-    </row>
-    <row r="241" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT240" s="5"/>
+      <c r="AU240" s="5"/>
+    </row>
+    <row r="241" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
@@ -12896,8 +14127,10 @@
       <c r="AQ241" s="5"/>
       <c r="AR241" s="5"/>
       <c r="AS241" s="5"/>
-    </row>
-    <row r="242" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT241" s="5"/>
+      <c r="AU241" s="5"/>
+    </row>
+    <row r="242" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
@@ -12941,8 +14174,10 @@
       <c r="AQ242" s="5"/>
       <c r="AR242" s="5"/>
       <c r="AS242" s="5"/>
-    </row>
-    <row r="243" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT242" s="5"/>
+      <c r="AU242" s="5"/>
+    </row>
+    <row r="243" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
@@ -12986,8 +14221,10 @@
       <c r="AQ243" s="5"/>
       <c r="AR243" s="5"/>
       <c r="AS243" s="5"/>
-    </row>
-    <row r="244" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT243" s="5"/>
+      <c r="AU243" s="5"/>
+    </row>
+    <row r="244" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
@@ -13031,8 +14268,10 @@
       <c r="AQ244" s="5"/>
       <c r="AR244" s="5"/>
       <c r="AS244" s="5"/>
-    </row>
-    <row r="245" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT244" s="5"/>
+      <c r="AU244" s="5"/>
+    </row>
+    <row r="245" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
@@ -13076,8 +14315,10 @@
       <c r="AQ245" s="5"/>
       <c r="AR245" s="5"/>
       <c r="AS245" s="5"/>
-    </row>
-    <row r="246" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT245" s="5"/>
+      <c r="AU245" s="5"/>
+    </row>
+    <row r="246" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
@@ -13121,8 +14362,10 @@
       <c r="AQ246" s="5"/>
       <c r="AR246" s="5"/>
       <c r="AS246" s="5"/>
-    </row>
-    <row r="247" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT246" s="5"/>
+      <c r="AU246" s="5"/>
+    </row>
+    <row r="247" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
@@ -13166,8 +14409,10 @@
       <c r="AQ247" s="5"/>
       <c r="AR247" s="5"/>
       <c r="AS247" s="5"/>
-    </row>
-    <row r="248" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT247" s="5"/>
+      <c r="AU247" s="5"/>
+    </row>
+    <row r="248" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
@@ -13211,8 +14456,10 @@
       <c r="AQ248" s="5"/>
       <c r="AR248" s="5"/>
       <c r="AS248" s="5"/>
-    </row>
-    <row r="249" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT248" s="5"/>
+      <c r="AU248" s="5"/>
+    </row>
+    <row r="249" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
@@ -13256,8 +14503,10 @@
       <c r="AQ249" s="5"/>
       <c r="AR249" s="5"/>
       <c r="AS249" s="5"/>
-    </row>
-    <row r="250" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT249" s="5"/>
+      <c r="AU249" s="5"/>
+    </row>
+    <row r="250" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
@@ -13301,8 +14550,10 @@
       <c r="AQ250" s="5"/>
       <c r="AR250" s="5"/>
       <c r="AS250" s="5"/>
-    </row>
-    <row r="251" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT250" s="5"/>
+      <c r="AU250" s="5"/>
+    </row>
+    <row r="251" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
@@ -13346,8 +14597,10 @@
       <c r="AQ251" s="5"/>
       <c r="AR251" s="5"/>
       <c r="AS251" s="5"/>
-    </row>
-    <row r="252" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT251" s="5"/>
+      <c r="AU251" s="5"/>
+    </row>
+    <row r="252" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
@@ -13391,8 +14644,10 @@
       <c r="AQ252" s="5"/>
       <c r="AR252" s="5"/>
       <c r="AS252" s="5"/>
-    </row>
-    <row r="253" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT252" s="5"/>
+      <c r="AU252" s="5"/>
+    </row>
+    <row r="253" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
@@ -13436,8 +14691,10 @@
       <c r="AQ253" s="5"/>
       <c r="AR253" s="5"/>
       <c r="AS253" s="5"/>
-    </row>
-    <row r="254" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT253" s="5"/>
+      <c r="AU253" s="5"/>
+    </row>
+    <row r="254" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
@@ -13481,8 +14738,10 @@
       <c r="AQ254" s="5"/>
       <c r="AR254" s="5"/>
       <c r="AS254" s="5"/>
-    </row>
-    <row r="255" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT254" s="5"/>
+      <c r="AU254" s="5"/>
+    </row>
+    <row r="255" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
@@ -13526,8 +14785,10 @@
       <c r="AQ255" s="5"/>
       <c r="AR255" s="5"/>
       <c r="AS255" s="5"/>
-    </row>
-    <row r="256" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT255" s="5"/>
+      <c r="AU255" s="5"/>
+    </row>
+    <row r="256" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
@@ -13571,8 +14832,10 @@
       <c r="AQ256" s="5"/>
       <c r="AR256" s="5"/>
       <c r="AS256" s="5"/>
-    </row>
-    <row r="257" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT256" s="5"/>
+      <c r="AU256" s="5"/>
+    </row>
+    <row r="257" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
@@ -13616,8 +14879,10 @@
       <c r="AQ257" s="5"/>
       <c r="AR257" s="5"/>
       <c r="AS257" s="5"/>
-    </row>
-    <row r="258" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT257" s="5"/>
+      <c r="AU257" s="5"/>
+    </row>
+    <row r="258" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
@@ -13661,8 +14926,10 @@
       <c r="AQ258" s="5"/>
       <c r="AR258" s="5"/>
       <c r="AS258" s="5"/>
-    </row>
-    <row r="259" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT258" s="5"/>
+      <c r="AU258" s="5"/>
+    </row>
+    <row r="259" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
@@ -13706,8 +14973,10 @@
       <c r="AQ259" s="5"/>
       <c r="AR259" s="5"/>
       <c r="AS259" s="5"/>
-    </row>
-    <row r="260" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT259" s="5"/>
+      <c r="AU259" s="5"/>
+    </row>
+    <row r="260" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
@@ -13751,8 +15020,10 @@
       <c r="AQ260" s="5"/>
       <c r="AR260" s="5"/>
       <c r="AS260" s="5"/>
-    </row>
-    <row r="261" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT260" s="5"/>
+      <c r="AU260" s="5"/>
+    </row>
+    <row r="261" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
@@ -13796,8 +15067,10 @@
       <c r="AQ261" s="5"/>
       <c r="AR261" s="5"/>
       <c r="AS261" s="5"/>
-    </row>
-    <row r="262" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT261" s="5"/>
+      <c r="AU261" s="5"/>
+    </row>
+    <row r="262" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
@@ -13841,8 +15114,10 @@
       <c r="AQ262" s="5"/>
       <c r="AR262" s="5"/>
       <c r="AS262" s="5"/>
-    </row>
-    <row r="263" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT262" s="5"/>
+      <c r="AU262" s="5"/>
+    </row>
+    <row r="263" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
@@ -13886,8 +15161,10 @@
       <c r="AQ263" s="5"/>
       <c r="AR263" s="5"/>
       <c r="AS263" s="5"/>
-    </row>
-    <row r="264" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT263" s="5"/>
+      <c r="AU263" s="5"/>
+    </row>
+    <row r="264" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
@@ -13931,8 +15208,10 @@
       <c r="AQ264" s="5"/>
       <c r="AR264" s="5"/>
       <c r="AS264" s="5"/>
-    </row>
-    <row r="265" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT264" s="5"/>
+      <c r="AU264" s="5"/>
+    </row>
+    <row r="265" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
@@ -13976,8 +15255,10 @@
       <c r="AQ265" s="5"/>
       <c r="AR265" s="5"/>
       <c r="AS265" s="5"/>
-    </row>
-    <row r="266" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT265" s="5"/>
+      <c r="AU265" s="5"/>
+    </row>
+    <row r="266" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
@@ -14021,8 +15302,10 @@
       <c r="AQ266" s="5"/>
       <c r="AR266" s="5"/>
       <c r="AS266" s="5"/>
-    </row>
-    <row r="267" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT266" s="5"/>
+      <c r="AU266" s="5"/>
+    </row>
+    <row r="267" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
@@ -14066,8 +15349,10 @@
       <c r="AQ267" s="5"/>
       <c r="AR267" s="5"/>
       <c r="AS267" s="5"/>
-    </row>
-    <row r="268" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT267" s="5"/>
+      <c r="AU267" s="5"/>
+    </row>
+    <row r="268" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
@@ -14111,8 +15396,10 @@
       <c r="AQ268" s="5"/>
       <c r="AR268" s="5"/>
       <c r="AS268" s="5"/>
-    </row>
-    <row r="269" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT268" s="5"/>
+      <c r="AU268" s="5"/>
+    </row>
+    <row r="269" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
@@ -14156,8 +15443,10 @@
       <c r="AQ269" s="5"/>
       <c r="AR269" s="5"/>
       <c r="AS269" s="5"/>
-    </row>
-    <row r="270" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT269" s="5"/>
+      <c r="AU269" s="5"/>
+    </row>
+    <row r="270" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
@@ -14201,8 +15490,10 @@
       <c r="AQ270" s="5"/>
       <c r="AR270" s="5"/>
       <c r="AS270" s="5"/>
-    </row>
-    <row r="271" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT270" s="5"/>
+      <c r="AU270" s="5"/>
+    </row>
+    <row r="271" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
@@ -14246,8 +15537,10 @@
       <c r="AQ271" s="5"/>
       <c r="AR271" s="5"/>
       <c r="AS271" s="5"/>
-    </row>
-    <row r="272" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT271" s="5"/>
+      <c r="AU271" s="5"/>
+    </row>
+    <row r="272" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
@@ -14291,8 +15584,10 @@
       <c r="AQ272" s="5"/>
       <c r="AR272" s="5"/>
       <c r="AS272" s="5"/>
-    </row>
-    <row r="273" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT272" s="5"/>
+      <c r="AU272" s="5"/>
+    </row>
+    <row r="273" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
@@ -14336,8 +15631,10 @@
       <c r="AQ273" s="5"/>
       <c r="AR273" s="5"/>
       <c r="AS273" s="5"/>
-    </row>
-    <row r="274" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT273" s="5"/>
+      <c r="AU273" s="5"/>
+    </row>
+    <row r="274" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
@@ -14381,8 +15678,10 @@
       <c r="AQ274" s="5"/>
       <c r="AR274" s="5"/>
       <c r="AS274" s="5"/>
-    </row>
-    <row r="275" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT274" s="5"/>
+      <c r="AU274" s="5"/>
+    </row>
+    <row r="275" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
@@ -14426,8 +15725,10 @@
       <c r="AQ275" s="5"/>
       <c r="AR275" s="5"/>
       <c r="AS275" s="5"/>
-    </row>
-    <row r="276" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT275" s="5"/>
+      <c r="AU275" s="5"/>
+    </row>
+    <row r="276" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
@@ -14471,8 +15772,10 @@
       <c r="AQ276" s="5"/>
       <c r="AR276" s="5"/>
       <c r="AS276" s="5"/>
-    </row>
-    <row r="277" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT276" s="5"/>
+      <c r="AU276" s="5"/>
+    </row>
+    <row r="277" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
@@ -14516,8 +15819,10 @@
       <c r="AQ277" s="5"/>
       <c r="AR277" s="5"/>
       <c r="AS277" s="5"/>
-    </row>
-    <row r="278" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT277" s="5"/>
+      <c r="AU277" s="5"/>
+    </row>
+    <row r="278" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
@@ -14561,8 +15866,10 @@
       <c r="AQ278" s="5"/>
       <c r="AR278" s="5"/>
       <c r="AS278" s="5"/>
-    </row>
-    <row r="279" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT278" s="5"/>
+      <c r="AU278" s="5"/>
+    </row>
+    <row r="279" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
@@ -14606,8 +15913,10 @@
       <c r="AQ279" s="5"/>
       <c r="AR279" s="5"/>
       <c r="AS279" s="5"/>
-    </row>
-    <row r="280" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT279" s="5"/>
+      <c r="AU279" s="5"/>
+    </row>
+    <row r="280" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
@@ -14651,8 +15960,10 @@
       <c r="AQ280" s="5"/>
       <c r="AR280" s="5"/>
       <c r="AS280" s="5"/>
-    </row>
-    <row r="281" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT280" s="5"/>
+      <c r="AU280" s="5"/>
+    </row>
+    <row r="281" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
@@ -14696,8 +16007,10 @@
       <c r="AQ281" s="5"/>
       <c r="AR281" s="5"/>
       <c r="AS281" s="5"/>
-    </row>
-    <row r="282" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT281" s="5"/>
+      <c r="AU281" s="5"/>
+    </row>
+    <row r="282" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
@@ -14741,8 +16054,10 @@
       <c r="AQ282" s="5"/>
       <c r="AR282" s="5"/>
       <c r="AS282" s="5"/>
-    </row>
-    <row r="283" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT282" s="5"/>
+      <c r="AU282" s="5"/>
+    </row>
+    <row r="283" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
@@ -14786,8 +16101,10 @@
       <c r="AQ283" s="5"/>
       <c r="AR283" s="5"/>
       <c r="AS283" s="5"/>
-    </row>
-    <row r="284" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT283" s="5"/>
+      <c r="AU283" s="5"/>
+    </row>
+    <row r="284" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
@@ -14831,8 +16148,10 @@
       <c r="AQ284" s="5"/>
       <c r="AR284" s="5"/>
       <c r="AS284" s="5"/>
-    </row>
-    <row r="285" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT284" s="5"/>
+      <c r="AU284" s="5"/>
+    </row>
+    <row r="285" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
@@ -14876,8 +16195,10 @@
       <c r="AQ285" s="5"/>
       <c r="AR285" s="5"/>
       <c r="AS285" s="5"/>
-    </row>
-    <row r="286" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT285" s="5"/>
+      <c r="AU285" s="5"/>
+    </row>
+    <row r="286" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
@@ -14921,8 +16242,10 @@
       <c r="AQ286" s="5"/>
       <c r="AR286" s="5"/>
       <c r="AS286" s="5"/>
-    </row>
-    <row r="287" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT286" s="5"/>
+      <c r="AU286" s="5"/>
+    </row>
+    <row r="287" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
@@ -14966,8 +16289,10 @@
       <c r="AQ287" s="5"/>
       <c r="AR287" s="5"/>
       <c r="AS287" s="5"/>
-    </row>
-    <row r="288" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT287" s="5"/>
+      <c r="AU287" s="5"/>
+    </row>
+    <row r="288" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
@@ -15011,8 +16336,10 @@
       <c r="AQ288" s="5"/>
       <c r="AR288" s="5"/>
       <c r="AS288" s="5"/>
-    </row>
-    <row r="289" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT288" s="5"/>
+      <c r="AU288" s="5"/>
+    </row>
+    <row r="289" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
@@ -15056,8 +16383,10 @@
       <c r="AQ289" s="5"/>
       <c r="AR289" s="5"/>
       <c r="AS289" s="5"/>
-    </row>
-    <row r="290" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT289" s="5"/>
+      <c r="AU289" s="5"/>
+    </row>
+    <row r="290" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
@@ -15101,8 +16430,10 @@
       <c r="AQ290" s="5"/>
       <c r="AR290" s="5"/>
       <c r="AS290" s="5"/>
-    </row>
-    <row r="291" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT290" s="5"/>
+      <c r="AU290" s="5"/>
+    </row>
+    <row r="291" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
@@ -15146,8 +16477,10 @@
       <c r="AQ291" s="5"/>
       <c r="AR291" s="5"/>
       <c r="AS291" s="5"/>
-    </row>
-    <row r="292" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT291" s="5"/>
+      <c r="AU291" s="5"/>
+    </row>
+    <row r="292" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
@@ -15191,8 +16524,10 @@
       <c r="AQ292" s="5"/>
       <c r="AR292" s="5"/>
       <c r="AS292" s="5"/>
-    </row>
-    <row r="293" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT292" s="5"/>
+      <c r="AU292" s="5"/>
+    </row>
+    <row r="293" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
@@ -15236,8 +16571,10 @@
       <c r="AQ293" s="5"/>
       <c r="AR293" s="5"/>
       <c r="AS293" s="5"/>
-    </row>
-    <row r="294" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT293" s="5"/>
+      <c r="AU293" s="5"/>
+    </row>
+    <row r="294" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
@@ -15281,8 +16618,10 @@
       <c r="AQ294" s="5"/>
       <c r="AR294" s="5"/>
       <c r="AS294" s="5"/>
-    </row>
-    <row r="295" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT294" s="5"/>
+      <c r="AU294" s="5"/>
+    </row>
+    <row r="295" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
@@ -15326,8 +16665,10 @@
       <c r="AQ295" s="5"/>
       <c r="AR295" s="5"/>
       <c r="AS295" s="5"/>
-    </row>
-    <row r="296" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT295" s="5"/>
+      <c r="AU295" s="5"/>
+    </row>
+    <row r="296" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
@@ -15371,8 +16712,10 @@
       <c r="AQ296" s="5"/>
       <c r="AR296" s="5"/>
       <c r="AS296" s="5"/>
-    </row>
-    <row r="297" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT296" s="5"/>
+      <c r="AU296" s="5"/>
+    </row>
+    <row r="297" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
@@ -15416,8 +16759,10 @@
       <c r="AQ297" s="5"/>
       <c r="AR297" s="5"/>
       <c r="AS297" s="5"/>
-    </row>
-    <row r="298" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT297" s="5"/>
+      <c r="AU297" s="5"/>
+    </row>
+    <row r="298" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
@@ -15461,8 +16806,10 @@
       <c r="AQ298" s="5"/>
       <c r="AR298" s="5"/>
       <c r="AS298" s="5"/>
-    </row>
-    <row r="299" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT298" s="5"/>
+      <c r="AU298" s="5"/>
+    </row>
+    <row r="299" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
@@ -15506,8 +16853,10 @@
       <c r="AQ299" s="5"/>
       <c r="AR299" s="5"/>
       <c r="AS299" s="5"/>
-    </row>
-    <row r="300" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT299" s="5"/>
+      <c r="AU299" s="5"/>
+    </row>
+    <row r="300" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
@@ -15551,8 +16900,10 @@
       <c r="AQ300" s="5"/>
       <c r="AR300" s="5"/>
       <c r="AS300" s="5"/>
-    </row>
-    <row r="301" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT300" s="5"/>
+      <c r="AU300" s="5"/>
+    </row>
+    <row r="301" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
@@ -15596,8 +16947,10 @@
       <c r="AQ301" s="5"/>
       <c r="AR301" s="5"/>
       <c r="AS301" s="5"/>
-    </row>
-    <row r="302" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT301" s="5"/>
+      <c r="AU301" s="5"/>
+    </row>
+    <row r="302" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
@@ -15641,8 +16994,10 @@
       <c r="AQ302" s="5"/>
       <c r="AR302" s="5"/>
       <c r="AS302" s="5"/>
-    </row>
-    <row r="303" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT302" s="5"/>
+      <c r="AU302" s="5"/>
+    </row>
+    <row r="303" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
@@ -15686,8 +17041,10 @@
       <c r="AQ303" s="5"/>
       <c r="AR303" s="5"/>
       <c r="AS303" s="5"/>
-    </row>
-    <row r="304" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT303" s="5"/>
+      <c r="AU303" s="5"/>
+    </row>
+    <row r="304" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
@@ -15731,8 +17088,10 @@
       <c r="AQ304" s="5"/>
       <c r="AR304" s="5"/>
       <c r="AS304" s="5"/>
-    </row>
-    <row r="305" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT304" s="5"/>
+      <c r="AU304" s="5"/>
+    </row>
+    <row r="305" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
@@ -15776,8 +17135,10 @@
       <c r="AQ305" s="5"/>
       <c r="AR305" s="5"/>
       <c r="AS305" s="5"/>
-    </row>
-    <row r="306" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT305" s="5"/>
+      <c r="AU305" s="5"/>
+    </row>
+    <row r="306" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
@@ -15821,8 +17182,10 @@
       <c r="AQ306" s="5"/>
       <c r="AR306" s="5"/>
       <c r="AS306" s="5"/>
-    </row>
-    <row r="307" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT306" s="5"/>
+      <c r="AU306" s="5"/>
+    </row>
+    <row r="307" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
@@ -15866,8 +17229,10 @@
       <c r="AQ307" s="5"/>
       <c r="AR307" s="5"/>
       <c r="AS307" s="5"/>
-    </row>
-    <row r="308" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT307" s="5"/>
+      <c r="AU307" s="5"/>
+    </row>
+    <row r="308" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
@@ -15911,8 +17276,10 @@
       <c r="AQ308" s="5"/>
       <c r="AR308" s="5"/>
       <c r="AS308" s="5"/>
-    </row>
-    <row r="309" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT308" s="5"/>
+      <c r="AU308" s="5"/>
+    </row>
+    <row r="309" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
@@ -15956,8 +17323,10 @@
       <c r="AQ309" s="5"/>
       <c r="AR309" s="5"/>
       <c r="AS309" s="5"/>
-    </row>
-    <row r="310" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT309" s="5"/>
+      <c r="AU309" s="5"/>
+    </row>
+    <row r="310" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
@@ -16001,8 +17370,10 @@
       <c r="AQ310" s="5"/>
       <c r="AR310" s="5"/>
       <c r="AS310" s="5"/>
-    </row>
-    <row r="311" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT310" s="5"/>
+      <c r="AU310" s="5"/>
+    </row>
+    <row r="311" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
@@ -16046,8 +17417,10 @@
       <c r="AQ311" s="5"/>
       <c r="AR311" s="5"/>
       <c r="AS311" s="5"/>
-    </row>
-    <row r="312" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT311" s="5"/>
+      <c r="AU311" s="5"/>
+    </row>
+    <row r="312" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
@@ -16091,8 +17464,10 @@
       <c r="AQ312" s="5"/>
       <c r="AR312" s="5"/>
       <c r="AS312" s="5"/>
-    </row>
-    <row r="313" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT312" s="5"/>
+      <c r="AU312" s="5"/>
+    </row>
+    <row r="313" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
@@ -16136,8 +17511,10 @@
       <c r="AQ313" s="5"/>
       <c r="AR313" s="5"/>
       <c r="AS313" s="5"/>
-    </row>
-    <row r="314" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT313" s="5"/>
+      <c r="AU313" s="5"/>
+    </row>
+    <row r="314" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
@@ -16181,8 +17558,10 @@
       <c r="AQ314" s="5"/>
       <c r="AR314" s="5"/>
       <c r="AS314" s="5"/>
-    </row>
-    <row r="315" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT314" s="5"/>
+      <c r="AU314" s="5"/>
+    </row>
+    <row r="315" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
@@ -16226,8 +17605,10 @@
       <c r="AQ315" s="5"/>
       <c r="AR315" s="5"/>
       <c r="AS315" s="5"/>
-    </row>
-    <row r="316" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT315" s="5"/>
+      <c r="AU315" s="5"/>
+    </row>
+    <row r="316" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
@@ -16271,8 +17652,10 @@
       <c r="AQ316" s="5"/>
       <c r="AR316" s="5"/>
       <c r="AS316" s="5"/>
-    </row>
-    <row r="317" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT316" s="5"/>
+      <c r="AU316" s="5"/>
+    </row>
+    <row r="317" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
@@ -16316,8 +17699,10 @@
       <c r="AQ317" s="5"/>
       <c r="AR317" s="5"/>
       <c r="AS317" s="5"/>
-    </row>
-    <row r="318" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT317" s="5"/>
+      <c r="AU317" s="5"/>
+    </row>
+    <row r="318" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
@@ -16361,8 +17746,10 @@
       <c r="AQ318" s="5"/>
       <c r="AR318" s="5"/>
       <c r="AS318" s="5"/>
-    </row>
-    <row r="319" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT318" s="5"/>
+      <c r="AU318" s="5"/>
+    </row>
+    <row r="319" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
@@ -16406,8 +17793,10 @@
       <c r="AQ319" s="5"/>
       <c r="AR319" s="5"/>
       <c r="AS319" s="5"/>
-    </row>
-    <row r="320" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT319" s="5"/>
+      <c r="AU319" s="5"/>
+    </row>
+    <row r="320" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
@@ -16451,8 +17840,10 @@
       <c r="AQ320" s="5"/>
       <c r="AR320" s="5"/>
       <c r="AS320" s="5"/>
-    </row>
-    <row r="321" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT320" s="5"/>
+      <c r="AU320" s="5"/>
+    </row>
+    <row r="321" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
@@ -16496,8 +17887,10 @@
       <c r="AQ321" s="5"/>
       <c r="AR321" s="5"/>
       <c r="AS321" s="5"/>
-    </row>
-    <row r="322" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT321" s="5"/>
+      <c r="AU321" s="5"/>
+    </row>
+    <row r="322" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
@@ -16541,8 +17934,10 @@
       <c r="AQ322" s="5"/>
       <c r="AR322" s="5"/>
       <c r="AS322" s="5"/>
-    </row>
-    <row r="323" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT322" s="5"/>
+      <c r="AU322" s="5"/>
+    </row>
+    <row r="323" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
@@ -16586,8 +17981,10 @@
       <c r="AQ323" s="5"/>
       <c r="AR323" s="5"/>
       <c r="AS323" s="5"/>
-    </row>
-    <row r="324" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT323" s="5"/>
+      <c r="AU323" s="5"/>
+    </row>
+    <row r="324" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
@@ -16631,8 +18028,10 @@
       <c r="AQ324" s="5"/>
       <c r="AR324" s="5"/>
       <c r="AS324" s="5"/>
-    </row>
-    <row r="325" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT324" s="5"/>
+      <c r="AU324" s="5"/>
+    </row>
+    <row r="325" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
@@ -16676,8 +18075,10 @@
       <c r="AQ325" s="5"/>
       <c r="AR325" s="5"/>
       <c r="AS325" s="5"/>
-    </row>
-    <row r="326" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT325" s="5"/>
+      <c r="AU325" s="5"/>
+    </row>
+    <row r="326" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
@@ -16721,8 +18122,10 @@
       <c r="AQ326" s="5"/>
       <c r="AR326" s="5"/>
       <c r="AS326" s="5"/>
-    </row>
-    <row r="327" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT326" s="5"/>
+      <c r="AU326" s="5"/>
+    </row>
+    <row r="327" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
@@ -16766,8 +18169,10 @@
       <c r="AQ327" s="5"/>
       <c r="AR327" s="5"/>
       <c r="AS327" s="5"/>
-    </row>
-    <row r="328" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT327" s="5"/>
+      <c r="AU327" s="5"/>
+    </row>
+    <row r="328" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
@@ -16811,8 +18216,10 @@
       <c r="AQ328" s="5"/>
       <c r="AR328" s="5"/>
       <c r="AS328" s="5"/>
-    </row>
-    <row r="329" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT328" s="5"/>
+      <c r="AU328" s="5"/>
+    </row>
+    <row r="329" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
@@ -16856,8 +18263,10 @@
       <c r="AQ329" s="5"/>
       <c r="AR329" s="5"/>
       <c r="AS329" s="5"/>
-    </row>
-    <row r="330" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT329" s="5"/>
+      <c r="AU329" s="5"/>
+    </row>
+    <row r="330" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
@@ -16901,8 +18310,10 @@
       <c r="AQ330" s="5"/>
       <c r="AR330" s="5"/>
       <c r="AS330" s="5"/>
-    </row>
-    <row r="331" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT330" s="5"/>
+      <c r="AU330" s="5"/>
+    </row>
+    <row r="331" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
@@ -16946,8 +18357,10 @@
       <c r="AQ331" s="5"/>
       <c r="AR331" s="5"/>
       <c r="AS331" s="5"/>
-    </row>
-    <row r="332" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT331" s="5"/>
+      <c r="AU331" s="5"/>
+    </row>
+    <row r="332" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
@@ -16991,8 +18404,10 @@
       <c r="AQ332" s="5"/>
       <c r="AR332" s="5"/>
       <c r="AS332" s="5"/>
-    </row>
-    <row r="333" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT332" s="5"/>
+      <c r="AU332" s="5"/>
+    </row>
+    <row r="333" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
@@ -17036,8 +18451,10 @@
       <c r="AQ333" s="5"/>
       <c r="AR333" s="5"/>
       <c r="AS333" s="5"/>
-    </row>
-    <row r="334" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT333" s="5"/>
+      <c r="AU333" s="5"/>
+    </row>
+    <row r="334" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
@@ -17081,8 +18498,10 @@
       <c r="AQ334" s="5"/>
       <c r="AR334" s="5"/>
       <c r="AS334" s="5"/>
-    </row>
-    <row r="335" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT334" s="5"/>
+      <c r="AU334" s="5"/>
+    </row>
+    <row r="335" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
@@ -17126,8 +18545,10 @@
       <c r="AQ335" s="5"/>
       <c r="AR335" s="5"/>
       <c r="AS335" s="5"/>
-    </row>
-    <row r="336" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT335" s="5"/>
+      <c r="AU335" s="5"/>
+    </row>
+    <row r="336" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
@@ -17171,8 +18592,10 @@
       <c r="AQ336" s="5"/>
       <c r="AR336" s="5"/>
       <c r="AS336" s="5"/>
-    </row>
-    <row r="337" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT336" s="5"/>
+      <c r="AU336" s="5"/>
+    </row>
+    <row r="337" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
@@ -17216,8 +18639,10 @@
       <c r="AQ337" s="5"/>
       <c r="AR337" s="5"/>
       <c r="AS337" s="5"/>
-    </row>
-    <row r="338" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT337" s="5"/>
+      <c r="AU337" s="5"/>
+    </row>
+    <row r="338" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
@@ -17261,8 +18686,10 @@
       <c r="AQ338" s="5"/>
       <c r="AR338" s="5"/>
       <c r="AS338" s="5"/>
-    </row>
-    <row r="339" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT338" s="5"/>
+      <c r="AU338" s="5"/>
+    </row>
+    <row r="339" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
@@ -17306,8 +18733,10 @@
       <c r="AQ339" s="5"/>
       <c r="AR339" s="5"/>
       <c r="AS339" s="5"/>
-    </row>
-    <row r="340" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT339" s="5"/>
+      <c r="AU339" s="5"/>
+    </row>
+    <row r="340" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
@@ -17351,8 +18780,10 @@
       <c r="AQ340" s="5"/>
       <c r="AR340" s="5"/>
       <c r="AS340" s="5"/>
-    </row>
-    <row r="341" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT340" s="5"/>
+      <c r="AU340" s="5"/>
+    </row>
+    <row r="341" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
@@ -17396,8 +18827,10 @@
       <c r="AQ341" s="5"/>
       <c r="AR341" s="5"/>
       <c r="AS341" s="5"/>
-    </row>
-    <row r="342" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT341" s="5"/>
+      <c r="AU341" s="5"/>
+    </row>
+    <row r="342" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
@@ -17441,8 +18874,10 @@
       <c r="AQ342" s="5"/>
       <c r="AR342" s="5"/>
       <c r="AS342" s="5"/>
-    </row>
-    <row r="343" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT342" s="5"/>
+      <c r="AU342" s="5"/>
+    </row>
+    <row r="343" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
@@ -17486,8 +18921,10 @@
       <c r="AQ343" s="5"/>
       <c r="AR343" s="5"/>
       <c r="AS343" s="5"/>
-    </row>
-    <row r="344" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT343" s="5"/>
+      <c r="AU343" s="5"/>
+    </row>
+    <row r="344" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
@@ -17531,8 +18968,10 @@
       <c r="AQ344" s="5"/>
       <c r="AR344" s="5"/>
       <c r="AS344" s="5"/>
-    </row>
-    <row r="345" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT344" s="5"/>
+      <c r="AU344" s="5"/>
+    </row>
+    <row r="345" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
@@ -17576,8 +19015,10 @@
       <c r="AQ345" s="5"/>
       <c r="AR345" s="5"/>
       <c r="AS345" s="5"/>
-    </row>
-    <row r="346" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT345" s="5"/>
+      <c r="AU345" s="5"/>
+    </row>
+    <row r="346" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
@@ -17621,8 +19062,10 @@
       <c r="AQ346" s="5"/>
       <c r="AR346" s="5"/>
       <c r="AS346" s="5"/>
-    </row>
-    <row r="347" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT346" s="5"/>
+      <c r="AU346" s="5"/>
+    </row>
+    <row r="347" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
@@ -17666,8 +19109,10 @@
       <c r="AQ347" s="5"/>
       <c r="AR347" s="5"/>
       <c r="AS347" s="5"/>
-    </row>
-    <row r="348" spans="3:45" x14ac:dyDescent="0.2">
+      <c r="AT347" s="5"/>
+      <c r="AU347" s="5"/>
+    </row>
+    <row r="348" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
@@ -17711,141 +19156,8 @@
       <c r="AQ348" s="5"/>
       <c r="AR348" s="5"/>
       <c r="AS348" s="5"/>
-    </row>
-    <row r="349" spans="3:45" x14ac:dyDescent="0.2">
-      <c r="C349" s="5"/>
-      <c r="D349" s="5"/>
-      <c r="E349" s="5"/>
-      <c r="F349" s="5"/>
-      <c r="G349" s="5"/>
-      <c r="H349" s="5"/>
-      <c r="I349" s="5"/>
-      <c r="J349" s="5"/>
-      <c r="K349" s="5"/>
-      <c r="L349" s="5"/>
-      <c r="M349" s="5"/>
-      <c r="N349" s="5"/>
-      <c r="O349" s="5"/>
-      <c r="P349" s="5"/>
-      <c r="Q349" s="5"/>
-      <c r="R349" s="5"/>
-      <c r="S349" s="5"/>
-      <c r="T349" s="5"/>
-      <c r="U349" s="5"/>
-      <c r="V349" s="5"/>
-      <c r="W349" s="5"/>
-      <c r="X349" s="5"/>
-      <c r="Y349" s="5"/>
-      <c r="Z349" s="5"/>
-      <c r="AA349" s="5"/>
-      <c r="AB349" s="5"/>
-      <c r="AC349" s="5"/>
-      <c r="AD349" s="5"/>
-      <c r="AE349" s="5"/>
-      <c r="AF349" s="5"/>
-      <c r="AG349" s="5"/>
-      <c r="AH349" s="5"/>
-      <c r="AI349" s="5"/>
-      <c r="AJ349" s="5"/>
-      <c r="AK349" s="5"/>
-      <c r="AL349" s="5"/>
-      <c r="AM349" s="5"/>
-      <c r="AN349" s="5"/>
-      <c r="AO349" s="5"/>
-      <c r="AP349" s="5"/>
-      <c r="AQ349" s="5"/>
-      <c r="AR349" s="5"/>
-      <c r="AS349" s="5"/>
-    </row>
-    <row r="350" spans="3:45" x14ac:dyDescent="0.2">
-      <c r="C350" s="5"/>
-      <c r="D350" s="5"/>
-      <c r="E350" s="5"/>
-      <c r="F350" s="5"/>
-      <c r="G350" s="5"/>
-      <c r="H350" s="5"/>
-      <c r="I350" s="5"/>
-      <c r="J350" s="5"/>
-      <c r="K350" s="5"/>
-      <c r="L350" s="5"/>
-      <c r="M350" s="5"/>
-      <c r="N350" s="5"/>
-      <c r="O350" s="5"/>
-      <c r="P350" s="5"/>
-      <c r="Q350" s="5"/>
-      <c r="R350" s="5"/>
-      <c r="S350" s="5"/>
-      <c r="T350" s="5"/>
-      <c r="U350" s="5"/>
-      <c r="V350" s="5"/>
-      <c r="W350" s="5"/>
-      <c r="X350" s="5"/>
-      <c r="Y350" s="5"/>
-      <c r="Z350" s="5"/>
-      <c r="AA350" s="5"/>
-      <c r="AB350" s="5"/>
-      <c r="AC350" s="5"/>
-      <c r="AD350" s="5"/>
-      <c r="AE350" s="5"/>
-      <c r="AF350" s="5"/>
-      <c r="AG350" s="5"/>
-      <c r="AH350" s="5"/>
-      <c r="AI350" s="5"/>
-      <c r="AJ350" s="5"/>
-      <c r="AK350" s="5"/>
-      <c r="AL350" s="5"/>
-      <c r="AM350" s="5"/>
-      <c r="AN350" s="5"/>
-      <c r="AO350" s="5"/>
-      <c r="AP350" s="5"/>
-      <c r="AQ350" s="5"/>
-      <c r="AR350" s="5"/>
-      <c r="AS350" s="5"/>
-    </row>
-    <row r="351" spans="3:45" x14ac:dyDescent="0.2">
-      <c r="C351" s="5"/>
-      <c r="D351" s="5"/>
-      <c r="E351" s="5"/>
-      <c r="F351" s="5"/>
-      <c r="G351" s="5"/>
-      <c r="H351" s="5"/>
-      <c r="I351" s="5"/>
-      <c r="J351" s="5"/>
-      <c r="K351" s="5"/>
-      <c r="L351" s="5"/>
-      <c r="M351" s="5"/>
-      <c r="N351" s="5"/>
-      <c r="O351" s="5"/>
-      <c r="P351" s="5"/>
-      <c r="Q351" s="5"/>
-      <c r="R351" s="5"/>
-      <c r="S351" s="5"/>
-      <c r="T351" s="5"/>
-      <c r="U351" s="5"/>
-      <c r="V351" s="5"/>
-      <c r="W351" s="5"/>
-      <c r="X351" s="5"/>
-      <c r="Y351" s="5"/>
-      <c r="Z351" s="5"/>
-      <c r="AA351" s="5"/>
-      <c r="AB351" s="5"/>
-      <c r="AC351" s="5"/>
-      <c r="AD351" s="5"/>
-      <c r="AE351" s="5"/>
-      <c r="AF351" s="5"/>
-      <c r="AG351" s="5"/>
-      <c r="AH351" s="5"/>
-      <c r="AI351" s="5"/>
-      <c r="AJ351" s="5"/>
-      <c r="AK351" s="5"/>
-      <c r="AL351" s="5"/>
-      <c r="AM351" s="5"/>
-      <c r="AN351" s="5"/>
-      <c r="AO351" s="5"/>
-      <c r="AP351" s="5"/>
-      <c r="AQ351" s="5"/>
-      <c r="AR351" s="5"/>
-      <c r="AS351" s="5"/>
+      <c r="AT348" s="5"/>
+      <c r="AU348" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
